--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>821835.6452032713</v>
+        <v>818000.3290516167</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33315485.83212409</v>
+        <v>33315485.8321241</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6051961.67983884</v>
+        <v>6051961.679838837</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4554161.189338542</v>
+        <v>4554161.189338544</v>
       </c>
     </row>
     <row r="11">
@@ -1220,64 +1220,64 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>37.06736141641883</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="G9" t="n">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H9" t="n">
-        <v>40.6378963153706</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,58 +1305,58 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>18.54795713427877</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H10" t="n">
+      <c r="V10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="I10" t="n">
+      <c r="W10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>215.2884604558074</v>
       </c>
       <c r="H11" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>39.87097519686765</v>
+        <v>39.87097519686766</v>
       </c>
       <c r="T11" t="n">
         <v>209.616899433655</v>
       </c>
       <c r="U11" t="n">
-        <v>105.7982232875221</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T12" t="n">
         <v>124.8125887466708</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.31587443167996</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>59.58402244051923</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>130.9872392357504</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.35142611526319</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>239.8087099681002</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>277.7407654414005</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1624,7 +1624,7 @@
         <v>395.49929442858</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>313.3223057224441</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T15" t="n">
         <v>124.8125887466708</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>130.9872392357504</v>
       </c>
       <c r="I16" t="n">
-        <v>62.35142611526319</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>4.484624168944674</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>190.7358076054387</v>
       </c>
     </row>
     <row r="17">
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>269.1451219910679</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U17" t="n">
         <v>256.4793149654022</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>181.2380699987305</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>96.65720691653941</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>49.1865957808298</v>
+        <v>130.9872392357504</v>
       </c>
       <c r="I19" t="n">
-        <v>62.35142611526319</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.8087099681002</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>225.4766486364587</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.8424073144216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T21" t="n">
         <v>124.8125887466708</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2247,19 +2247,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>130.9872392357504</v>
+        <v>63.42523328179641</v>
       </c>
       <c r="I22" t="n">
-        <v>48.35660355497419</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8087099681002</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>395.49929442858</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>28.70969978263472</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>160.7170958739348</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T24" t="n">
         <v>124.8125887466708</v>
@@ -2496,7 +2496,7 @@
         <v>130.9872392357504</v>
       </c>
       <c r="I25" t="n">
-        <v>62.35142611526319</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>126.1206337954971</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>127.0658235296643</v>
       </c>
       <c r="G26" t="n">
         <v>395.49929442858</v>
       </c>
       <c r="H26" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T27" t="n">
         <v>124.8125887466708</v>
@@ -2733,7 +2733,7 @@
         <v>130.9872392357504</v>
       </c>
       <c r="I28" t="n">
-        <v>62.35142611526319</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>239.8087099681002</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6025608416631</v>
+        <v>275.6025608416909</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2797,19 +2797,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.49929442858</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>189.2733297138584</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>39.87097519686765</v>
       </c>
       <c r="T29" t="n">
-        <v>178.3960552044773</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T30" t="n">
         <v>124.8125887466708</v>
@@ -2970,7 +2970,7 @@
         <v>130.9872392357504</v>
       </c>
       <c r="I31" t="n">
-        <v>62.35142611526319</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9168426887022</v>
+        <v>142.9168426887018</v>
       </c>
       <c r="T31" t="n">
         <v>239.8087099681002</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6025608416977</v>
+        <v>275.6025608416905</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3037,10 +3037,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.49929442858</v>
@@ -3082,19 +3082,19 @@
         <v>39.87097519686765</v>
       </c>
       <c r="T32" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>358.0017979448052</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.9405556684084</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T33" t="n">
         <v>124.8125887466708</v>
@@ -3207,7 +3207,7 @@
         <v>130.9872392357504</v>
       </c>
       <c r="I34" t="n">
-        <v>62.35142611526319</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9168426887022</v>
+        <v>142.9168426887018</v>
       </c>
       <c r="T34" t="n">
         <v>239.8087099681002</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>105.3146278258261</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3277,13 +3277,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>128.6003106877398</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T35" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>59.58402244051968</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.35142611526319</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8087099681002</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6025608416909</v>
       </c>
       <c r="V37" t="n">
-        <v>86.69504055673437</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>430.2129655039594</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>128.6003106877398</v>
       </c>
       <c r="G38" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3681,7 +3681,7 @@
         <v>130.9872392357504</v>
       </c>
       <c r="I40" t="n">
-        <v>62.35142611526319</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>103.9113084980738</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>66.24174018211818</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>327.3532371147564</v>
       </c>
       <c r="E41" t="n">
-        <v>365.868958707144</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3906,13 +3906,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>130.9872392357504</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8087099681002</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6025608416909</v>
+        <v>152.5686885585659</v>
       </c>
       <c r="V43" t="n">
-        <v>230.8912168478655</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>259.3250339427861</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>39.87097519686765</v>
       </c>
       <c r="T44" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>119.9625941793379</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0900140992919</v>
+        <v>112.5013949481565</v>
       </c>
       <c r="H46" t="n">
-        <v>104.9996710587917</v>
+        <v>130.9872392357504</v>
       </c>
       <c r="I46" t="n">
         <v>62.35142611526319</v>
@@ -4194,13 +4194,13 @@
         <v>275.6025608416909</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>127.8182329816055</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>86.08590667097184</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
@@ -4910,25 +4910,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901094</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C10" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D10" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E10" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>7.439194768028656</v>
+        <v>11.27972408753691</v>
       </c>
       <c r="K10" t="n">
-        <v>48.34104778508073</v>
+        <v>52.18157710458898</v>
       </c>
       <c r="L10" t="n">
-        <v>57.03429022422174</v>
+        <v>93.08343012164104</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6121820221549</v>
+        <v>102.2492353911842</v>
       </c>
       <c r="N10" t="n">
-        <v>78.56004492897041</v>
+        <v>111.1970982979997</v>
       </c>
       <c r="O10" t="n">
         <v>119.4618979460225</v>
@@ -4986,28 +4986,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>165.2600121901094</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="V10" t="n">
-        <v>165.2600121901094</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="W10" t="n">
-        <v>165.2600121901094</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="X10" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1180.829365722315</v>
+        <v>264.8802761130635</v>
       </c>
       <c r="C11" t="n">
-        <v>1180.829365722315</v>
+        <v>264.8802761130635</v>
       </c>
       <c r="D11" t="n">
-        <v>744.9195808967595</v>
+        <v>264.8802761130635</v>
       </c>
       <c r="E11" t="n">
-        <v>744.9195808967595</v>
+        <v>264.8802761130635</v>
       </c>
       <c r="F11" t="n">
-        <v>317.0521513059672</v>
+        <v>264.8802761130635</v>
       </c>
       <c r="G11" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="H11" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I11" t="n">
-        <v>118.9365917639705</v>
+        <v>118.9365917639708</v>
       </c>
       <c r="J11" t="n">
-        <v>277.2866545754682</v>
+        <v>277.2866545754686</v>
       </c>
       <c r="K11" t="n">
-        <v>514.6123507107053</v>
+        <v>514.6123507107056</v>
       </c>
       <c r="L11" t="n">
-        <v>809.0358625400454</v>
+        <v>809.0358625400456</v>
       </c>
       <c r="M11" t="n">
-        <v>1136.638748787553</v>
+        <v>1136.638748787554</v>
       </c>
       <c r="N11" t="n">
         <v>1469.542592232819</v>
@@ -5065,28 +5065,28 @@
         <v>2253.662139923805</v>
       </c>
       <c r="R11" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S11" t="n">
-        <v>2330.585524857985</v>
+        <v>2330.585524857984</v>
       </c>
       <c r="T11" t="n">
         <v>2118.851283005808</v>
       </c>
       <c r="U11" t="n">
-        <v>2011.98439079619</v>
+        <v>1859.78126788924</v>
       </c>
       <c r="V11" t="n">
-        <v>2011.98439079619</v>
+        <v>1497.164317823066</v>
       </c>
       <c r="W11" t="n">
-        <v>1607.128936207223</v>
+        <v>1092.308863234099</v>
       </c>
       <c r="X11" t="n">
-        <v>1607.128936207223</v>
+        <v>673.1663998134101</v>
       </c>
       <c r="Y11" t="n">
-        <v>1607.128936207223</v>
+        <v>264.8802761130635</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>163.6827234637261</v>
       </c>
       <c r="G12" t="n">
-        <v>79.31614662250912</v>
+        <v>79.31614662250911</v>
       </c>
       <c r="H12" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I12" t="n">
-        <v>81.78656726718471</v>
+        <v>81.78656726718469</v>
       </c>
       <c r="J12" t="n">
         <v>176.0987798711818</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2933730396216</v>
+        <v>337.2933730396215</v>
       </c>
       <c r="L12" t="n">
-        <v>554.0393962029324</v>
+        <v>554.0393962029322</v>
       </c>
       <c r="M12" t="n">
-        <v>806.9717819850647</v>
+        <v>806.9717819850644</v>
       </c>
       <c r="N12" t="n">
-        <v>1059.178555854504</v>
+        <v>1066.598535395046</v>
       </c>
       <c r="O12" t="n">
-        <v>1296.686313021258</v>
+        <v>1304.1062925618</v>
       </c>
       <c r="P12" t="n">
-        <v>1487.307227201325</v>
+        <v>1494.727206741867</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.73226019082</v>
+        <v>1622.152239731362</v>
       </c>
       <c r="R12" t="n">
         <v>1676.710983630873</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>927.61352800896</v>
+        <v>626.6298353008924</v>
       </c>
       <c r="C13" t="n">
-        <v>755.0518164921849</v>
+        <v>454.0681237841173</v>
       </c>
       <c r="D13" t="n">
-        <v>589.1738236937076</v>
+        <v>393.8822425310676</v>
       </c>
       <c r="E13" t="n">
-        <v>419.4158199444448</v>
+        <v>224.1242387818048</v>
       </c>
       <c r="F13" t="n">
-        <v>242.7087659062011</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="G13" t="n">
-        <v>242.7087659062011</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I13" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="J13" t="n">
         <v>193.1653212310857</v>
       </c>
       <c r="K13" t="n">
-        <v>565.1557171556775</v>
+        <v>363.4258185562908</v>
       </c>
       <c r="L13" t="n">
-        <v>1107.789008070307</v>
+        <v>487.8492277029591</v>
       </c>
       <c r="M13" t="n">
-        <v>1420.86527245328</v>
+        <v>1074.636888904527</v>
       </c>
       <c r="N13" t="n">
-        <v>1548.932977367421</v>
+        <v>1644.963396976313</v>
       </c>
       <c r="O13" t="n">
-        <v>1667.224231214333</v>
+        <v>2182.923900049007</v>
       </c>
       <c r="P13" t="n">
-        <v>2115.949728296286</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q13" t="n">
-        <v>2354.221017386493</v>
+        <v>2354.221017386492</v>
       </c>
       <c r="R13" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S13" t="n">
-        <v>2226.498790017748</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="T13" t="n">
-        <v>1984.267769847949</v>
+        <v>2128.628217008254</v>
       </c>
       <c r="U13" t="n">
-        <v>1705.881344755332</v>
+        <v>1850.241791915637</v>
       </c>
       <c r="V13" t="n">
-        <v>1418.925836625762</v>
+        <v>1563.286283786067</v>
       </c>
       <c r="W13" t="n">
-        <v>1418.925836625762</v>
+        <v>1291.259879372359</v>
       </c>
       <c r="X13" t="n">
-        <v>1173.534081959175</v>
+        <v>1045.868124705771</v>
       </c>
       <c r="Y13" t="n">
-        <v>946.1144112732832</v>
+        <v>818.4484540198796</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1308.553595972604</v>
+        <v>2014.098347360565</v>
       </c>
       <c r="C14" t="n">
-        <v>1308.553595972604</v>
+        <v>2014.098347360565</v>
       </c>
       <c r="D14" t="n">
-        <v>1308.553595972604</v>
+        <v>1578.18856253501</v>
       </c>
       <c r="E14" t="n">
-        <v>874.7788511308988</v>
+        <v>1144.413817693305</v>
       </c>
       <c r="F14" t="n">
-        <v>446.9114215401066</v>
+        <v>716.5463881025128</v>
       </c>
       <c r="G14" t="n">
-        <v>47.41718474356106</v>
+        <v>317.0521513059672</v>
       </c>
       <c r="H14" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I14" t="n">
-        <v>118.9365917639708</v>
+        <v>118.9365917639703</v>
       </c>
       <c r="J14" t="n">
-        <v>277.2866545754686</v>
+        <v>277.2866545754682</v>
       </c>
       <c r="K14" t="n">
-        <v>514.6123507107058</v>
+        <v>514.612350710705</v>
       </c>
       <c r="L14" t="n">
-        <v>809.0358625400459</v>
+        <v>809.0358625400452</v>
       </c>
       <c r="M14" t="n">
-        <v>1136.638748787554</v>
+        <v>1136.638748787553</v>
       </c>
       <c r="N14" t="n">
-        <v>1469.542592232819</v>
+        <v>1469.542592232818</v>
       </c>
       <c r="O14" t="n">
-        <v>1783.894251556588</v>
+        <v>1783.894251556587</v>
       </c>
       <c r="P14" t="n">
-        <v>2052.18612000675</v>
+        <v>2052.186120006749</v>
       </c>
       <c r="Q14" t="n">
-        <v>2253.662139923805</v>
+        <v>2253.662139923804</v>
       </c>
       <c r="R14" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S14" t="n">
-        <v>2370.859237178053</v>
+        <v>2330.585524857984</v>
       </c>
       <c r="T14" t="n">
-        <v>2370.859237178053</v>
+        <v>2330.585524857984</v>
       </c>
       <c r="U14" t="n">
-        <v>2370.859237178053</v>
+        <v>2330.585524857984</v>
       </c>
       <c r="V14" t="n">
-        <v>2008.242287111879</v>
+        <v>2330.585524857984</v>
       </c>
       <c r="W14" t="n">
-        <v>2008.242287111879</v>
+        <v>2330.585524857984</v>
       </c>
       <c r="X14" t="n">
-        <v>1589.09982369119</v>
+        <v>2014.098347360565</v>
       </c>
       <c r="Y14" t="n">
-        <v>1589.09982369119</v>
+        <v>2014.098347360565</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.7337265374152</v>
+        <v>542.7337265374151</v>
       </c>
       <c r="C15" t="n">
-        <v>436.2772653740575</v>
+        <v>436.2772653740574</v>
       </c>
       <c r="D15" t="n">
-        <v>341.1869765206108</v>
+        <v>341.1869765206107</v>
       </c>
       <c r="E15" t="n">
-        <v>247.0665618475645</v>
+        <v>247.0665618475644</v>
       </c>
       <c r="F15" t="n">
-        <v>163.6827234637261</v>
+        <v>163.682723463726</v>
       </c>
       <c r="G15" t="n">
-        <v>79.31614662250912</v>
+        <v>79.31614662250909</v>
       </c>
       <c r="H15" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I15" t="n">
-        <v>81.78656726718471</v>
+        <v>81.78656726718468</v>
       </c>
       <c r="J15" t="n">
-        <v>176.0987798711818</v>
+        <v>168.6788003306397</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2933730396216</v>
+        <v>329.8733934990794</v>
       </c>
       <c r="L15" t="n">
-        <v>554.0393962029324</v>
+        <v>546.6194166623901</v>
       </c>
       <c r="M15" t="n">
-        <v>806.9717819850646</v>
+        <v>799.5518024445223</v>
       </c>
       <c r="N15" t="n">
-        <v>1066.598535395047</v>
+        <v>1059.178555854504</v>
       </c>
       <c r="O15" t="n">
-        <v>1304.1062925618</v>
+        <v>1296.686313021258</v>
       </c>
       <c r="P15" t="n">
         <v>1487.307227201325</v>
@@ -5399,10 +5399,10 @@
         <v>945.3908425990776</v>
       </c>
       <c r="X15" t="n">
-        <v>790.5234068379576</v>
+        <v>790.5234068379575</v>
       </c>
       <c r="Y15" t="n">
-        <v>664.0376276171784</v>
+        <v>664.0376276171783</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>749.7658691513217</v>
+        <v>517.026626901793</v>
       </c>
       <c r="C16" t="n">
-        <v>577.2041576345466</v>
+        <v>344.4649153850179</v>
       </c>
       <c r="D16" t="n">
-        <v>577.2041576345466</v>
+        <v>344.4649153850179</v>
       </c>
       <c r="E16" t="n">
-        <v>407.4461538852838</v>
+        <v>344.4649153850179</v>
       </c>
       <c r="F16" t="n">
-        <v>407.4461538852838</v>
+        <v>344.4649153850179</v>
       </c>
       <c r="G16" t="n">
-        <v>242.7087659062011</v>
+        <v>179.7275274059352</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I16" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="J16" t="n">
         <v>106.5856360663958</v>
       </c>
       <c r="K16" t="n">
-        <v>203.817577419852</v>
+        <v>203.8175774198519</v>
       </c>
       <c r="L16" t="n">
-        <v>328.2409865665204</v>
+        <v>746.4508683344814</v>
       </c>
       <c r="M16" t="n">
-        <v>915.0286477680885</v>
+        <v>1333.238529536049</v>
       </c>
       <c r="N16" t="n">
-        <v>1485.355155839875</v>
+        <v>1903.565037607835</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.417006078665</v>
+        <v>2182.923900049006</v>
       </c>
       <c r="P16" t="n">
-        <v>2284.142503160617</v>
+        <v>2284.142503160616</v>
       </c>
       <c r="Q16" t="n">
-        <v>2354.221017386493</v>
+        <v>2354.221017386492</v>
       </c>
       <c r="R16" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S16" t="n">
-        <v>2226.498790017748</v>
+        <v>2226.498790017747</v>
       </c>
       <c r="T16" t="n">
-        <v>1984.267769847949</v>
+        <v>1984.267769847948</v>
       </c>
       <c r="U16" t="n">
-        <v>1705.881344755332</v>
+        <v>1705.881344755331</v>
       </c>
       <c r="V16" t="n">
         <v>1418.925836625762</v>
       </c>
       <c r="W16" t="n">
-        <v>1414.395913222788</v>
+        <v>1146.899432212053</v>
       </c>
       <c r="X16" t="n">
-        <v>1169.004158556201</v>
+        <v>901.5076775454656</v>
       </c>
       <c r="Y16" t="n">
-        <v>941.5844878703087</v>
+        <v>708.8452456207801</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>752.9619361315227</v>
+        <v>1454.925813300273</v>
       </c>
       <c r="C17" t="n">
-        <v>752.9619361315227</v>
+        <v>1016.783340483697</v>
       </c>
       <c r="D17" t="n">
-        <v>317.0521513059672</v>
+        <v>744.9195808967595</v>
       </c>
       <c r="E17" t="n">
-        <v>317.0521513059672</v>
+        <v>744.9195808967595</v>
       </c>
       <c r="F17" t="n">
         <v>317.0521513059672</v>
@@ -5512,16 +5512,16 @@
         <v>47.41718474356106</v>
       </c>
       <c r="I17" t="n">
-        <v>118.9365917639706</v>
+        <v>118.9365917639705</v>
       </c>
       <c r="J17" t="n">
-        <v>277.2866545754685</v>
+        <v>277.2866545754686</v>
       </c>
       <c r="K17" t="n">
-        <v>514.6123507107055</v>
+        <v>514.6123507107056</v>
       </c>
       <c r="L17" t="n">
-        <v>809.0358625400455</v>
+        <v>809.0358625400456</v>
       </c>
       <c r="M17" t="n">
         <v>1136.638748787553</v>
@@ -5542,25 +5542,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S17" t="n">
-        <v>2370.859237178053</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="T17" t="n">
-        <v>2370.859237178053</v>
+        <v>2118.851283005808</v>
       </c>
       <c r="U17" t="n">
-        <v>2111.789222061485</v>
+        <v>1859.78126788924</v>
       </c>
       <c r="V17" t="n">
-        <v>1749.172271995311</v>
+        <v>1859.78126788924</v>
       </c>
       <c r="W17" t="n">
-        <v>1344.316817406345</v>
+        <v>1454.925813300273</v>
       </c>
       <c r="X17" t="n">
-        <v>1161.248059831869</v>
+        <v>1454.925813300273</v>
       </c>
       <c r="Y17" t="n">
-        <v>752.9619361315227</v>
+        <v>1454.925813300273</v>
       </c>
     </row>
     <row r="18">
@@ -5594,16 +5594,16 @@
         <v>81.78656726718471</v>
       </c>
       <c r="J18" t="n">
-        <v>168.6788003306395</v>
+        <v>176.0987798711818</v>
       </c>
       <c r="K18" t="n">
-        <v>329.8733934990793</v>
+        <v>337.2933730396216</v>
       </c>
       <c r="L18" t="n">
-        <v>546.61941666239</v>
+        <v>554.0393962029324</v>
       </c>
       <c r="M18" t="n">
-        <v>799.5518024445222</v>
+        <v>806.9717819850646</v>
       </c>
       <c r="N18" t="n">
         <v>1059.178555854504</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>674.0880068595748</v>
+        <v>626.6298353008929</v>
       </c>
       <c r="C19" t="n">
-        <v>501.5262953427997</v>
+        <v>454.0681237841178</v>
       </c>
       <c r="D19" t="n">
-        <v>501.5262953427997</v>
+        <v>454.0681237841178</v>
       </c>
       <c r="E19" t="n">
-        <v>501.5262953427997</v>
+        <v>356.434581444179</v>
       </c>
       <c r="F19" t="n">
-        <v>324.8192413045559</v>
+        <v>179.7275274059352</v>
       </c>
       <c r="G19" t="n">
-        <v>160.0818533254732</v>
+        <v>179.7275274059352</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I19" t="n">
         <v>47.41718474356106</v>
@@ -5679,19 +5679,19 @@
         <v>203.817577419852</v>
       </c>
       <c r="L19" t="n">
-        <v>328.2409865665204</v>
+        <v>595.9429554382824</v>
       </c>
       <c r="M19" t="n">
-        <v>558.9372200698538</v>
+        <v>727.1299949341857</v>
       </c>
       <c r="N19" t="n">
-        <v>1129.26372814164</v>
+        <v>1297.456503005972</v>
       </c>
       <c r="O19" t="n">
-        <v>1667.224231214333</v>
+        <v>1835.417006078665</v>
       </c>
       <c r="P19" t="n">
-        <v>2115.949728296286</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q19" t="n">
         <v>2354.221017386493</v>
@@ -5700,25 +5700,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S19" t="n">
-        <v>2226.498790017748</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="T19" t="n">
-        <v>1984.267769847949</v>
+        <v>2128.628217008255</v>
       </c>
       <c r="U19" t="n">
-        <v>1705.881344755332</v>
+        <v>1850.241791915637</v>
       </c>
       <c r="V19" t="n">
-        <v>1418.925836625762</v>
+        <v>1563.286283786068</v>
       </c>
       <c r="W19" t="n">
-        <v>1146.899432212054</v>
+        <v>1291.259879372359</v>
       </c>
       <c r="X19" t="n">
-        <v>901.5076775454665</v>
+        <v>1045.868124705772</v>
       </c>
       <c r="Y19" t="n">
-        <v>674.0880068595748</v>
+        <v>818.44845401988</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1624.879153789804</v>
+        <v>909.0593591760581</v>
       </c>
       <c r="C20" t="n">
-        <v>1186.736680973228</v>
+        <v>909.0593591760581</v>
       </c>
       <c r="D20" t="n">
-        <v>750.8268961476721</v>
+        <v>909.0593591760581</v>
       </c>
       <c r="E20" t="n">
-        <v>317.0521513059672</v>
+        <v>475.2846143343533</v>
       </c>
       <c r="F20" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="G20" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="H20" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I20" t="n">
-        <v>118.9365917639705</v>
+        <v>118.9365917639703</v>
       </c>
       <c r="J20" t="n">
-        <v>277.2866545754686</v>
+        <v>277.2866545754682</v>
       </c>
       <c r="K20" t="n">
-        <v>514.6123507107056</v>
+        <v>514.6123507107052</v>
       </c>
       <c r="L20" t="n">
-        <v>809.0358625400456</v>
+        <v>809.0358625400452</v>
       </c>
       <c r="M20" t="n">
         <v>1136.638748787553</v>
       </c>
       <c r="N20" t="n">
-        <v>1469.542592232819</v>
+        <v>1469.542592232818</v>
       </c>
       <c r="O20" t="n">
-        <v>1783.894251556588</v>
+        <v>1783.894251556587</v>
       </c>
       <c r="P20" t="n">
-        <v>2052.18612000675</v>
+        <v>2052.186120006749</v>
       </c>
       <c r="Q20" t="n">
-        <v>2253.662139923805</v>
+        <v>2253.662139923804</v>
       </c>
       <c r="R20" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S20" t="n">
-        <v>2330.585524857985</v>
+        <v>2330.585524857984</v>
       </c>
       <c r="T20" t="n">
-        <v>2330.585524857985</v>
+        <v>2330.585524857984</v>
       </c>
       <c r="U20" t="n">
-        <v>2330.585524857985</v>
+        <v>2330.585524857984</v>
       </c>
       <c r="V20" t="n">
-        <v>2330.585524857985</v>
+        <v>1967.96857479181</v>
       </c>
       <c r="W20" t="n">
-        <v>1925.730070269018</v>
+        <v>1563.113120202843</v>
       </c>
       <c r="X20" t="n">
-        <v>1925.730070269018</v>
+        <v>1335.358929660966</v>
       </c>
       <c r="Y20" t="n">
-        <v>1624.879153789804</v>
+        <v>1335.358929660966</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.7337265374152</v>
+        <v>542.7337265374151</v>
       </c>
       <c r="C21" t="n">
-        <v>436.2772653740575</v>
+        <v>436.2772653740574</v>
       </c>
       <c r="D21" t="n">
-        <v>341.1869765206108</v>
+        <v>341.1869765206107</v>
       </c>
       <c r="E21" t="n">
-        <v>247.0665618475645</v>
+        <v>247.0665618475644</v>
       </c>
       <c r="F21" t="n">
-        <v>163.6827234637261</v>
+        <v>163.682723463726</v>
       </c>
       <c r="G21" t="n">
-        <v>79.31614662250912</v>
+        <v>79.31614662250909</v>
       </c>
       <c r="H21" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I21" t="n">
-        <v>81.78656726718471</v>
+        <v>74.36658772664265</v>
       </c>
       <c r="J21" t="n">
-        <v>176.0987798711818</v>
+        <v>168.6788003306397</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2933730396216</v>
+        <v>329.8733934990794</v>
       </c>
       <c r="L21" t="n">
-        <v>554.0393962029324</v>
+        <v>546.6194166623901</v>
       </c>
       <c r="M21" t="n">
-        <v>806.9717819850646</v>
+        <v>799.5518024445223</v>
       </c>
       <c r="N21" t="n">
-        <v>1066.598535395047</v>
+        <v>1059.178555854504</v>
       </c>
       <c r="O21" t="n">
-        <v>1304.1062925618</v>
+        <v>1296.686313021258</v>
       </c>
       <c r="P21" t="n">
         <v>1487.307227201325</v>
@@ -5873,10 +5873,10 @@
         <v>945.3908425990776</v>
       </c>
       <c r="X21" t="n">
-        <v>790.5234068379576</v>
+        <v>790.5234068379575</v>
       </c>
       <c r="Y21" t="n">
-        <v>664.0376276171784</v>
+        <v>664.0376276171783</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>901.5076775454665</v>
+        <v>626.629835300892</v>
       </c>
       <c r="C22" t="n">
-        <v>728.9459660286915</v>
+        <v>454.0681237841169</v>
       </c>
       <c r="D22" t="n">
-        <v>563.0679732302142</v>
+        <v>288.1901309856396</v>
       </c>
       <c r="E22" t="n">
-        <v>393.3099694809515</v>
+        <v>288.1901309856396</v>
       </c>
       <c r="F22" t="n">
-        <v>393.3099694809515</v>
+        <v>111.4830769473958</v>
       </c>
       <c r="G22" t="n">
-        <v>228.5725815018687</v>
+        <v>111.4830769473958</v>
       </c>
       <c r="H22" t="n">
-        <v>96.26223883949459</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I22" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="J22" t="n">
-        <v>106.5856360663958</v>
+        <v>193.1653212310857</v>
       </c>
       <c r="K22" t="n">
-        <v>203.817577419852</v>
+        <v>565.1557171556774</v>
       </c>
       <c r="L22" t="n">
-        <v>328.2409865665204</v>
+        <v>1107.789008070307</v>
       </c>
       <c r="M22" t="n">
-        <v>558.9372200698538</v>
+        <v>1238.97604756621</v>
       </c>
       <c r="N22" t="n">
-        <v>1129.26372814164</v>
+        <v>1367.043752480352</v>
       </c>
       <c r="O22" t="n">
         <v>1667.224231214333</v>
       </c>
       <c r="P22" t="n">
-        <v>2115.949728296286</v>
+        <v>2115.949728296285</v>
       </c>
       <c r="Q22" t="n">
-        <v>2354.221017386493</v>
+        <v>2354.221017386492</v>
       </c>
       <c r="R22" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S22" t="n">
-        <v>2226.498790017748</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="T22" t="n">
-        <v>1984.267769847949</v>
+        <v>2128.628217008254</v>
       </c>
       <c r="U22" t="n">
-        <v>1705.881344755332</v>
+        <v>1850.241791915636</v>
       </c>
       <c r="V22" t="n">
-        <v>1418.925836625762</v>
+        <v>1563.286283786067</v>
       </c>
       <c r="W22" t="n">
-        <v>1146.899432212054</v>
+        <v>1291.259879372358</v>
       </c>
       <c r="X22" t="n">
-        <v>901.5076775454665</v>
+        <v>1045.868124705771</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.5076775454665</v>
+        <v>818.4484540198791</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1767.189067449402</v>
+        <v>1592.774245944319</v>
       </c>
       <c r="C23" t="n">
-        <v>1329.046594632825</v>
+        <v>1592.774245944319</v>
       </c>
       <c r="D23" t="n">
-        <v>893.1368098072696</v>
+        <v>1156.864461118763</v>
       </c>
       <c r="E23" t="n">
-        <v>459.3620649655649</v>
+        <v>1156.864461118763</v>
       </c>
       <c r="F23" t="n">
-        <v>459.3620649655649</v>
+        <v>728.9970315279711</v>
       </c>
       <c r="G23" t="n">
-        <v>59.86782816901933</v>
+        <v>329.5027947314255</v>
       </c>
       <c r="H23" t="n">
         <v>59.86782816901933</v>
@@ -5989,28 +5989,28 @@
         <v>131.3872351894289</v>
       </c>
       <c r="J23" t="n">
-        <v>289.7372980009268</v>
+        <v>724.9919854538447</v>
       </c>
       <c r="K23" t="n">
-        <v>527.0629941361638</v>
+        <v>962.3176815890816</v>
       </c>
       <c r="L23" t="n">
-        <v>1018.306546468852</v>
+        <v>1256.741193418422</v>
       </c>
       <c r="M23" t="n">
-        <v>1759.170920060466</v>
+        <v>1584.344079665929</v>
       </c>
       <c r="N23" t="n">
-        <v>2092.074763505732</v>
+        <v>1917.247923111195</v>
       </c>
       <c r="O23" t="n">
-        <v>2406.426422829501</v>
+        <v>2231.599582434964</v>
       </c>
       <c r="P23" t="n">
-        <v>2674.718291279663</v>
+        <v>2499.891450885126</v>
       </c>
       <c r="Q23" t="n">
-        <v>2876.194311196718</v>
+        <v>2707.040246443661</v>
       </c>
       <c r="R23" t="n">
         <v>2993.391408450966</v>
@@ -6019,22 +6019,22 @@
         <v>2993.391408450966</v>
       </c>
       <c r="T23" t="n">
-        <v>2964.39171170083</v>
+        <v>2781.657166598789</v>
       </c>
       <c r="U23" t="n">
-        <v>2964.39171170083</v>
+        <v>2522.587151482222</v>
       </c>
       <c r="V23" t="n">
-        <v>2601.774761634656</v>
+        <v>2159.970201416048</v>
       </c>
       <c r="W23" t="n">
-        <v>2601.774761634656</v>
+        <v>1755.114746827081</v>
       </c>
       <c r="X23" t="n">
-        <v>2601.774761634656</v>
+        <v>1755.114746827081</v>
       </c>
       <c r="Y23" t="n">
-        <v>2193.48863793431</v>
+        <v>1592.774245944319</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>59.86782816901933</v>
       </c>
       <c r="I24" t="n">
-        <v>94.23721069264299</v>
+        <v>94.23721069264298</v>
       </c>
       <c r="J24" t="n">
         <v>188.5494232966401</v>
       </c>
       <c r="K24" t="n">
-        <v>349.7440164650799</v>
+        <v>349.7440164650798</v>
       </c>
       <c r="L24" t="n">
-        <v>566.4900396283906</v>
+        <v>566.4900396283905</v>
       </c>
       <c r="M24" t="n">
-        <v>819.4224254105228</v>
+        <v>819.4224254105227</v>
       </c>
       <c r="N24" t="n">
         <v>1079.049178820505</v>
@@ -6089,7 +6089,7 @@
         <v>1507.177850167325</v>
       </c>
       <c r="Q24" t="n">
-        <v>1634.602883156821</v>
+        <v>1627.182903616279</v>
       </c>
       <c r="R24" t="n">
         <v>1689.161627056332</v>
@@ -6135,34 +6135,34 @@
         <v>596.6038513489857</v>
       </c>
       <c r="F25" t="n">
-        <v>419.8967973107419</v>
+        <v>419.896797310742</v>
       </c>
       <c r="G25" t="n">
-        <v>255.1594093316594</v>
+        <v>255.1594093316593</v>
       </c>
       <c r="H25" t="n">
-        <v>122.8490666692851</v>
+        <v>122.8490666692852</v>
       </c>
       <c r="I25" t="n">
         <v>59.86782816901933</v>
       </c>
       <c r="J25" t="n">
-        <v>119.0362794918541</v>
+        <v>205.615964656544</v>
       </c>
       <c r="K25" t="n">
-        <v>216.2682208453103</v>
+        <v>395.672087721663</v>
       </c>
       <c r="L25" t="n">
-        <v>590.7984846659509</v>
+        <v>938.3053786362924</v>
       </c>
       <c r="M25" t="n">
-        <v>1181.469391342767</v>
+        <v>1528.976285313109</v>
       </c>
       <c r="N25" t="n">
-        <v>1751.795899414553</v>
+        <v>2099.302793384895</v>
       </c>
       <c r="O25" t="n">
-        <v>2289.756402487247</v>
+        <v>2637.263296457588</v>
       </c>
       <c r="P25" t="n">
         <v>2738.481899569199</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1294.534083935958</v>
+        <v>1461.763639304328</v>
       </c>
       <c r="C26" t="n">
-        <v>856.3916111193817</v>
+        <v>1023.621166487751</v>
       </c>
       <c r="D26" t="n">
-        <v>856.3916111193817</v>
+        <v>587.7113816621954</v>
       </c>
       <c r="E26" t="n">
-        <v>728.9970315279704</v>
+        <v>587.7113816621954</v>
       </c>
       <c r="F26" t="n">
-        <v>728.9970315279704</v>
+        <v>459.3620649655649</v>
       </c>
       <c r="G26" t="n">
-        <v>329.5027947314249</v>
+        <v>59.86782816901933</v>
       </c>
       <c r="H26" t="n">
-        <v>59.86782816901873</v>
+        <v>59.86782816901933</v>
       </c>
       <c r="I26" t="n">
-        <v>131.3872351894283</v>
+        <v>131.3872351894289</v>
       </c>
       <c r="J26" t="n">
-        <v>724.9919854538441</v>
+        <v>724.9919854538447</v>
       </c>
       <c r="K26" t="n">
-        <v>962.3176815890811</v>
+        <v>967.9904572305616</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.741193418421</v>
+        <v>1262.413969059902</v>
       </c>
       <c r="M26" t="n">
-        <v>1584.344079665929</v>
+        <v>1590.01685530741</v>
       </c>
       <c r="N26" t="n">
-        <v>1922.920698752646</v>
+        <v>1922.920698752675</v>
       </c>
       <c r="O26" t="n">
-        <v>2237.272358076415</v>
+        <v>2237.272358076444</v>
       </c>
       <c r="P26" t="n">
-        <v>2505.564226526576</v>
+        <v>2505.564226526606</v>
       </c>
       <c r="Q26" t="n">
-        <v>2707.040246443632</v>
+        <v>2707.040246443661</v>
       </c>
       <c r="R26" t="n">
-        <v>2993.391408450937</v>
+        <v>2993.391408450966</v>
       </c>
       <c r="S26" t="n">
-        <v>2953.117696130868</v>
+        <v>2953.117696130898</v>
       </c>
       <c r="T26" t="n">
-        <v>2953.117696130868</v>
+        <v>2953.117696130898</v>
       </c>
       <c r="U26" t="n">
-        <v>2953.117696130868</v>
+        <v>2694.04768101433</v>
       </c>
       <c r="V26" t="n">
-        <v>2953.117696130868</v>
+        <v>2694.04768101433</v>
       </c>
       <c r="W26" t="n">
-        <v>2548.262241541902</v>
+        <v>2289.192226425364</v>
       </c>
       <c r="X26" t="n">
-        <v>2129.119778121213</v>
+        <v>1870.049763004674</v>
       </c>
       <c r="Y26" t="n">
-        <v>1720.833654420866</v>
+        <v>1461.763639304328</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>555.1843699628729</v>
+        <v>555.1843699628735</v>
       </c>
       <c r="C27" t="n">
-        <v>448.7279087995151</v>
+        <v>448.7279087995158</v>
       </c>
       <c r="D27" t="n">
-        <v>353.6376199460684</v>
+        <v>353.637619946069</v>
       </c>
       <c r="E27" t="n">
-        <v>259.5172052730221</v>
+        <v>259.5172052730227</v>
       </c>
       <c r="F27" t="n">
-        <v>176.1333668891837</v>
+        <v>176.1333668891843</v>
       </c>
       <c r="G27" t="n">
-        <v>91.76679004796679</v>
+        <v>91.76679004796739</v>
       </c>
       <c r="H27" t="n">
-        <v>59.86782816901873</v>
+        <v>59.86782816901933</v>
       </c>
       <c r="I27" t="n">
-        <v>94.23721069264238</v>
+        <v>94.23721069264298</v>
       </c>
       <c r="J27" t="n">
-        <v>188.5494232966395</v>
+        <v>188.5494232966401</v>
       </c>
       <c r="K27" t="n">
-        <v>349.7440164650793</v>
+        <v>349.7440164650798</v>
       </c>
       <c r="L27" t="n">
-        <v>566.4900396283899</v>
+        <v>566.4900396283905</v>
       </c>
       <c r="M27" t="n">
-        <v>812.0024458699799</v>
+        <v>819.4224254105227</v>
       </c>
       <c r="N27" t="n">
-        <v>1071.629199279962</v>
+        <v>1079.049178820505</v>
       </c>
       <c r="O27" t="n">
-        <v>1309.136956446715</v>
+        <v>1309.136956446716</v>
       </c>
       <c r="P27" t="n">
-        <v>1499.757870626782</v>
+        <v>1499.757870626783</v>
       </c>
       <c r="Q27" t="n">
-        <v>1627.182903616278</v>
+        <v>1627.182903616279</v>
       </c>
       <c r="R27" t="n">
-        <v>1689.161627056331</v>
+        <v>1689.161627056332</v>
       </c>
       <c r="S27" t="n">
-        <v>1644.624619768563</v>
+        <v>1644.624619768564</v>
       </c>
       <c r="T27" t="n">
-        <v>1518.551297802229</v>
+        <v>1518.55129780223</v>
       </c>
       <c r="U27" t="n">
-        <v>1342.281758229342</v>
+        <v>1342.281758229343</v>
       </c>
       <c r="V27" t="n">
-        <v>1143.164240291341</v>
+        <v>1143.164240291342</v>
       </c>
       <c r="W27" t="n">
-        <v>957.8414860245352</v>
+        <v>957.8414860245359</v>
       </c>
       <c r="X27" t="n">
-        <v>802.9740502634153</v>
+        <v>802.9740502634158</v>
       </c>
       <c r="Y27" t="n">
-        <v>676.488271042636</v>
+        <v>676.4882710426366</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1104.8015594135</v>
+        <v>1104.801559413501</v>
       </c>
       <c r="C28" t="n">
-        <v>932.2398478967253</v>
+        <v>932.2398478967257</v>
       </c>
       <c r="D28" t="n">
-        <v>766.361855098248</v>
+        <v>766.3618550982485</v>
       </c>
       <c r="E28" t="n">
-        <v>596.6038513489852</v>
+        <v>596.6038513489857</v>
       </c>
       <c r="F28" t="n">
-        <v>419.8967973107415</v>
+        <v>419.8967973107419</v>
       </c>
       <c r="G28" t="n">
-        <v>255.1594093316587</v>
+        <v>255.1594093316594</v>
       </c>
       <c r="H28" t="n">
-        <v>122.8490666692846</v>
+        <v>122.8490666692852</v>
       </c>
       <c r="I28" t="n">
-        <v>59.86782816901873</v>
+        <v>59.86782816901933</v>
       </c>
       <c r="J28" t="n">
-        <v>119.0362794918535</v>
+        <v>205.615964656544</v>
       </c>
       <c r="K28" t="n">
-        <v>216.2682208453097</v>
+        <v>577.6063605811356</v>
       </c>
       <c r="L28" t="n">
-        <v>590.7984846659213</v>
+        <v>1120.239651495765</v>
       </c>
       <c r="M28" t="n">
-        <v>1181.469391342737</v>
+        <v>1251.426690991668</v>
       </c>
       <c r="N28" t="n">
-        <v>1751.795899414524</v>
+        <v>1751.795899414553</v>
       </c>
       <c r="O28" t="n">
-        <v>2289.756402487217</v>
+        <v>2289.756402487247</v>
       </c>
       <c r="P28" t="n">
-        <v>2738.481899569169</v>
+        <v>2738.481899569199</v>
       </c>
       <c r="Q28" t="n">
-        <v>2976.753188659377</v>
+        <v>2976.753188659406</v>
       </c>
       <c r="R28" t="n">
-        <v>2993.391408450937</v>
+        <v>2993.391408450966</v>
       </c>
       <c r="S28" t="n">
-        <v>2849.030961290632</v>
+        <v>2849.030961290661</v>
       </c>
       <c r="T28" t="n">
-        <v>2606.799941120833</v>
+        <v>2606.799941120863</v>
       </c>
       <c r="U28" t="n">
-        <v>2328.413516028244</v>
+        <v>2328.413516028245</v>
       </c>
       <c r="V28" t="n">
-        <v>2041.458007898675</v>
+        <v>2041.458007898676</v>
       </c>
       <c r="W28" t="n">
         <v>1769.431603484967</v>
       </c>
       <c r="X28" t="n">
-        <v>1524.039848818379</v>
+        <v>1524.03984881838</v>
       </c>
       <c r="Y28" t="n">
-        <v>1296.620178132487</v>
+        <v>1296.620178132488</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>897.5045377821416</v>
+        <v>1952.466933727639</v>
       </c>
       <c r="C29" t="n">
-        <v>459.362064965565</v>
+        <v>1514.324460911062</v>
       </c>
       <c r="D29" t="n">
-        <v>459.362064965565</v>
+        <v>1078.414676085507</v>
       </c>
       <c r="E29" t="n">
-        <v>459.362064965565</v>
+        <v>1078.414676085507</v>
       </c>
       <c r="F29" t="n">
-        <v>459.362064965565</v>
+        <v>650.5472464947147</v>
       </c>
       <c r="G29" t="n">
-        <v>59.86782816901946</v>
+        <v>251.0530096981692</v>
       </c>
       <c r="H29" t="n">
-        <v>59.86782816901946</v>
+        <v>59.8678281690193</v>
       </c>
       <c r="I29" t="n">
-        <v>131.387235189429</v>
+        <v>131.3872351894289</v>
       </c>
       <c r="J29" t="n">
-        <v>289.7372980009269</v>
+        <v>724.9919854538447</v>
       </c>
       <c r="K29" t="n">
-        <v>527.0629941361639</v>
+        <v>967.9904572305607</v>
       </c>
       <c r="L29" t="n">
-        <v>1267.92736772778</v>
+        <v>1262.413969059901</v>
       </c>
       <c r="M29" t="n">
-        <v>1759.170920060473</v>
+        <v>1590.016855307409</v>
       </c>
       <c r="N29" t="n">
-        <v>2092.074763505739</v>
+        <v>1922.920698752674</v>
       </c>
       <c r="O29" t="n">
-        <v>2406.426422829508</v>
+        <v>2237.272358076443</v>
       </c>
       <c r="P29" t="n">
-        <v>2674.718291279669</v>
+        <v>2505.564226526605</v>
       </c>
       <c r="Q29" t="n">
-        <v>2876.194311196724</v>
+        <v>2707.04024644366</v>
       </c>
       <c r="R29" t="n">
-        <v>2993.391408450973</v>
+        <v>2993.391408450965</v>
       </c>
       <c r="S29" t="n">
-        <v>2953.117696130905</v>
+        <v>2953.117696130897</v>
       </c>
       <c r="T29" t="n">
-        <v>2772.919660570827</v>
+        <v>2741.38345427872</v>
       </c>
       <c r="U29" t="n">
-        <v>2513.849645454259</v>
+        <v>2741.38345427872</v>
       </c>
       <c r="V29" t="n">
-        <v>2151.232695388085</v>
+        <v>2378.766504212547</v>
       </c>
       <c r="W29" t="n">
-        <v>2151.232695388085</v>
+        <v>2378.766504212547</v>
       </c>
       <c r="X29" t="n">
-        <v>1732.090231967396</v>
+        <v>2378.766504212547</v>
       </c>
       <c r="Y29" t="n">
-        <v>1323.804108267049</v>
+        <v>2378.766504212547</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>555.1843699628736</v>
+        <v>555.1843699628735</v>
       </c>
       <c r="C30" t="n">
-        <v>448.7279087995159</v>
+        <v>448.7279087995157</v>
       </c>
       <c r="D30" t="n">
-        <v>353.6376199460692</v>
+        <v>353.637619946069</v>
       </c>
       <c r="E30" t="n">
-        <v>259.5172052730229</v>
+        <v>259.5172052730227</v>
       </c>
       <c r="F30" t="n">
-        <v>176.1333668891845</v>
+        <v>176.1333668891843</v>
       </c>
       <c r="G30" t="n">
-        <v>91.76679004796752</v>
+        <v>91.76679004796736</v>
       </c>
       <c r="H30" t="n">
-        <v>59.86782816901946</v>
+        <v>59.8678281690193</v>
       </c>
       <c r="I30" t="n">
-        <v>94.23721069264312</v>
+        <v>94.23721069264296</v>
       </c>
       <c r="J30" t="n">
-        <v>188.5494232966402</v>
+        <v>188.54942329664</v>
       </c>
       <c r="K30" t="n">
-        <v>349.74401646508</v>
+        <v>349.7440164650798</v>
       </c>
       <c r="L30" t="n">
-        <v>566.4900396283906</v>
+        <v>566.4900396283904</v>
       </c>
       <c r="M30" t="n">
-        <v>819.4224254105228</v>
+        <v>819.4224254105226</v>
       </c>
       <c r="N30" t="n">
         <v>1079.049178820505</v>
@@ -6563,7 +6563,7 @@
         <v>1507.177850167325</v>
       </c>
       <c r="Q30" t="n">
-        <v>1634.602883156821</v>
+        <v>1627.182903616279</v>
       </c>
       <c r="R30" t="n">
         <v>1689.161627056332</v>
@@ -6584,10 +6584,10 @@
         <v>957.8414860245359</v>
       </c>
       <c r="X30" t="n">
-        <v>802.974050263416</v>
+        <v>802.9740502634158</v>
       </c>
       <c r="Y30" t="n">
-        <v>676.4882710426367</v>
+        <v>676.4882710426366</v>
       </c>
     </row>
     <row r="31">
@@ -6600,58 +6600,58 @@
         <v>1104.801559413501</v>
       </c>
       <c r="C31" t="n">
-        <v>932.2398478967261</v>
+        <v>932.2398478967258</v>
       </c>
       <c r="D31" t="n">
-        <v>766.3618550982487</v>
+        <v>766.3618550982485</v>
       </c>
       <c r="E31" t="n">
-        <v>596.603851348986</v>
+        <v>596.6038513489857</v>
       </c>
       <c r="F31" t="n">
-        <v>419.8967973107423</v>
+        <v>419.8967973107419</v>
       </c>
       <c r="G31" t="n">
-        <v>255.1594093316595</v>
+        <v>255.1594093316592</v>
       </c>
       <c r="H31" t="n">
-        <v>122.8490666692853</v>
+        <v>122.8490666692852</v>
       </c>
       <c r="I31" t="n">
-        <v>59.86782816901946</v>
+        <v>59.8678281690193</v>
       </c>
       <c r="J31" t="n">
-        <v>119.0362794918542</v>
+        <v>205.6159646565439</v>
       </c>
       <c r="K31" t="n">
-        <v>216.2682208453104</v>
+        <v>577.6063605811356</v>
       </c>
       <c r="L31" t="n">
-        <v>590.7984846659573</v>
+        <v>1120.239651495765</v>
       </c>
       <c r="M31" t="n">
-        <v>1181.469391342774</v>
+        <v>1251.426690991668</v>
       </c>
       <c r="N31" t="n">
-        <v>1751.79589941456</v>
+        <v>1751.795899414552</v>
       </c>
       <c r="O31" t="n">
-        <v>2289.756402487253</v>
+        <v>2289.756402487246</v>
       </c>
       <c r="P31" t="n">
-        <v>2738.481899569205</v>
+        <v>2738.481899569198</v>
       </c>
       <c r="Q31" t="n">
-        <v>2976.753188659413</v>
+        <v>2976.753188659405</v>
       </c>
       <c r="R31" t="n">
-        <v>2993.391408450973</v>
+        <v>2993.391408450965</v>
       </c>
       <c r="S31" t="n">
-        <v>2849.030961290668</v>
+        <v>2849.03096129066</v>
       </c>
       <c r="T31" t="n">
-        <v>2606.799941120869</v>
+        <v>2606.799941120862</v>
       </c>
       <c r="U31" t="n">
         <v>2328.413516028245</v>
@@ -6660,7 +6660,7 @@
         <v>2041.458007898676</v>
       </c>
       <c r="W31" t="n">
-        <v>1769.431603484968</v>
+        <v>1769.431603484967</v>
       </c>
       <c r="X31" t="n">
         <v>1524.03984881838</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>895.2718497911203</v>
+        <v>1756.914024223618</v>
       </c>
       <c r="C32" t="n">
-        <v>895.2718497911203</v>
+        <v>1756.914024223618</v>
       </c>
       <c r="D32" t="n">
-        <v>459.3620649655649</v>
+        <v>1321.004239398062</v>
       </c>
       <c r="E32" t="n">
-        <v>459.3620649655649</v>
+        <v>887.2294945563572</v>
       </c>
       <c r="F32" t="n">
         <v>459.3620649655649</v>
@@ -6700,28 +6700,28 @@
         <v>131.3872351894289</v>
       </c>
       <c r="J32" t="n">
-        <v>289.7372980009268</v>
+        <v>724.9919854538447</v>
       </c>
       <c r="K32" t="n">
-        <v>527.0629941361638</v>
+        <v>967.9904572305611</v>
       </c>
       <c r="L32" t="n">
-        <v>821.4865059655037</v>
+        <v>1262.413969059901</v>
       </c>
       <c r="M32" t="n">
-        <v>1149.089392213012</v>
+        <v>1590.016855307409</v>
       </c>
       <c r="N32" t="n">
-        <v>1481.993235658277</v>
+        <v>1922.920698752675</v>
       </c>
       <c r="O32" t="n">
-        <v>1796.344894982046</v>
+        <v>2237.272358076444</v>
       </c>
       <c r="P32" t="n">
-        <v>2135.329937605103</v>
+        <v>2505.564226526606</v>
       </c>
       <c r="Q32" t="n">
-        <v>2876.194311196717</v>
+        <v>2707.04024644366</v>
       </c>
       <c r="R32" t="n">
         <v>2993.391408450966</v>
@@ -6730,22 +6730,22 @@
         <v>2953.117696130897</v>
       </c>
       <c r="T32" t="n">
-        <v>2741.383454278721</v>
+        <v>2953.117696130897</v>
       </c>
       <c r="U32" t="n">
-        <v>2482.313439162153</v>
+        <v>2953.117696130897</v>
       </c>
       <c r="V32" t="n">
-        <v>2119.696489095979</v>
+        <v>2591.499718408872</v>
       </c>
       <c r="W32" t="n">
-        <v>2119.696489095979</v>
+        <v>2591.499718408872</v>
       </c>
       <c r="X32" t="n">
-        <v>1729.857543976375</v>
+        <v>2591.499718408872</v>
       </c>
       <c r="Y32" t="n">
-        <v>1321.571420276028</v>
+        <v>2183.213594708525</v>
       </c>
     </row>
     <row r="33">
@@ -6779,16 +6779,16 @@
         <v>94.23721069264298</v>
       </c>
       <c r="J33" t="n">
-        <v>181.1294437560979</v>
+        <v>188.5494232966401</v>
       </c>
       <c r="K33" t="n">
-        <v>342.3240369245377</v>
+        <v>349.7440164650798</v>
       </c>
       <c r="L33" t="n">
-        <v>559.0700600878483</v>
+        <v>566.4900396283905</v>
       </c>
       <c r="M33" t="n">
-        <v>812.0024458699805</v>
+        <v>819.4224254105227</v>
       </c>
       <c r="N33" t="n">
         <v>1071.629199279963</v>
@@ -6837,16 +6837,16 @@
         <v>1104.801559413501</v>
       </c>
       <c r="C34" t="n">
-        <v>932.2398478967258</v>
+        <v>932.2398478967259</v>
       </c>
       <c r="D34" t="n">
-        <v>766.3618550982485</v>
+        <v>766.3618550982487</v>
       </c>
       <c r="E34" t="n">
-        <v>596.6038513489858</v>
+        <v>596.6038513489859</v>
       </c>
       <c r="F34" t="n">
-        <v>419.896797310742</v>
+        <v>419.8967973107422</v>
       </c>
       <c r="G34" t="n">
         <v>255.1594093316593</v>
@@ -6858,16 +6858,16 @@
         <v>59.86782816901931</v>
       </c>
       <c r="J34" t="n">
-        <v>119.0362794918541</v>
+        <v>205.6159646565439</v>
       </c>
       <c r="K34" t="n">
-        <v>491.0266754164458</v>
+        <v>577.6063605811356</v>
       </c>
       <c r="L34" t="n">
-        <v>1033.659966331075</v>
+        <v>1120.239651495765</v>
       </c>
       <c r="M34" t="n">
-        <v>1181.469391342766</v>
+        <v>1251.426690991668</v>
       </c>
       <c r="N34" t="n">
         <v>1751.795899414552</v>
@@ -6885,16 +6885,16 @@
         <v>2993.391408450966</v>
       </c>
       <c r="S34" t="n">
-        <v>2849.03096129066</v>
+        <v>2849.030961290661</v>
       </c>
       <c r="T34" t="n">
-        <v>2606.799941120862</v>
+        <v>2606.799941120863</v>
       </c>
       <c r="U34" t="n">
         <v>2328.413516028245</v>
       </c>
       <c r="V34" t="n">
-        <v>2041.458007898675</v>
+        <v>2041.458007898676</v>
       </c>
       <c r="W34" t="n">
         <v>1769.431603484967</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2052.746583380597</v>
+        <v>1485.143490952388</v>
       </c>
       <c r="C35" t="n">
-        <v>1614.60411056402</v>
+        <v>1047.001018135811</v>
       </c>
       <c r="D35" t="n">
-        <v>1178.694325738464</v>
+        <v>611.0912333102556</v>
       </c>
       <c r="E35" t="n">
-        <v>744.9195808967595</v>
+        <v>177.3164884685507</v>
       </c>
       <c r="F35" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="G35" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H35" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I35" t="n">
-        <v>118.9365917639705</v>
+        <v>118.9365917639706</v>
       </c>
       <c r="J35" t="n">
         <v>277.2866545754684</v>
@@ -6961,28 +6961,28 @@
         <v>2253.662139923805</v>
       </c>
       <c r="R35" t="n">
-        <v>2370.859237178052</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="S35" t="n">
-        <v>2370.859237178052</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="T35" t="n">
-        <v>2159.124995325876</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="U35" t="n">
-        <v>2159.124995325876</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="V35" t="n">
-        <v>2159.124995325876</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="W35" t="n">
-        <v>2159.124995325876</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="X35" t="n">
-        <v>2159.124995325876</v>
+        <v>1911.443061437295</v>
       </c>
       <c r="Y35" t="n">
-        <v>2159.124995325876</v>
+        <v>1911.443061437295</v>
       </c>
     </row>
     <row r="36">
@@ -7007,31 +7007,31 @@
         <v>163.6827234637261</v>
       </c>
       <c r="G36" t="n">
-        <v>79.31614662250911</v>
+        <v>79.31614662250912</v>
       </c>
       <c r="H36" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I36" t="n">
         <v>81.78656726718471</v>
       </c>
       <c r="J36" t="n">
-        <v>168.6788003306395</v>
+        <v>176.0987798711818</v>
       </c>
       <c r="K36" t="n">
-        <v>329.8733934990793</v>
+        <v>337.2933730396216</v>
       </c>
       <c r="L36" t="n">
-        <v>546.61941666239</v>
+        <v>554.0393962029324</v>
       </c>
       <c r="M36" t="n">
-        <v>799.5518024445222</v>
+        <v>806.9717819850646</v>
       </c>
       <c r="N36" t="n">
-        <v>1059.178555854504</v>
+        <v>1066.598535395047</v>
       </c>
       <c r="O36" t="n">
-        <v>1296.686313021258</v>
+        <v>1304.1062925618</v>
       </c>
       <c r="P36" t="n">
         <v>1487.307227201325</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>960.0405733256684</v>
+        <v>626.6298353008929</v>
       </c>
       <c r="C37" t="n">
-        <v>787.4788618088934</v>
+        <v>454.0681237841178</v>
       </c>
       <c r="D37" t="n">
-        <v>621.6008690104161</v>
+        <v>393.8822425310676</v>
       </c>
       <c r="E37" t="n">
-        <v>451.8428652611534</v>
+        <v>224.1242387818048</v>
       </c>
       <c r="F37" t="n">
-        <v>275.1358112229096</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="G37" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I37" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="J37" t="n">
-        <v>193.1653212310857</v>
+        <v>106.5856360663958</v>
       </c>
       <c r="K37" t="n">
-        <v>565.1557171556774</v>
+        <v>327.3756928169657</v>
       </c>
       <c r="L37" t="n">
-        <v>870.0089837315946</v>
+        <v>870.0089837315951</v>
       </c>
       <c r="M37" t="n">
         <v>1001.196023227498</v>
@@ -7113,34 +7113,34 @@
         <v>1667.224231214333</v>
       </c>
       <c r="P37" t="n">
-        <v>2115.949728296285</v>
+        <v>2115.949728296286</v>
       </c>
       <c r="Q37" t="n">
-        <v>2354.221017386492</v>
+        <v>2354.221017386493</v>
       </c>
       <c r="R37" t="n">
-        <v>2370.859237178052</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="S37" t="n">
-        <v>2226.498790017747</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="T37" t="n">
-        <v>1984.267769847949</v>
+        <v>2128.628217008255</v>
       </c>
       <c r="U37" t="n">
-        <v>1984.267769847949</v>
+        <v>1850.241791915637</v>
       </c>
       <c r="V37" t="n">
-        <v>1896.697021810843</v>
+        <v>1563.286283786068</v>
       </c>
       <c r="W37" t="n">
-        <v>1624.670617397135</v>
+        <v>1291.259879372359</v>
       </c>
       <c r="X37" t="n">
-        <v>1379.278862730547</v>
+        <v>1045.868124705772</v>
       </c>
       <c r="Y37" t="n">
-        <v>1151.859192044656</v>
+        <v>818.44845401988</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>881.4699725542069</v>
+        <v>1485.143490952388</v>
       </c>
       <c r="C38" t="n">
-        <v>881.4699725542069</v>
+        <v>1047.001018135811</v>
       </c>
       <c r="D38" t="n">
-        <v>446.9114215401066</v>
+        <v>611.0912333102556</v>
       </c>
       <c r="E38" t="n">
-        <v>446.9114215401066</v>
+        <v>177.3164884685507</v>
       </c>
       <c r="F38" t="n">
-        <v>446.9114215401066</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="G38" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H38" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I38" t="n">
         <v>118.9365917639706</v>
       </c>
       <c r="J38" t="n">
-        <v>277.2866545754685</v>
+        <v>277.2866545754684</v>
       </c>
       <c r="K38" t="n">
-        <v>514.6123507107056</v>
+        <v>514.6123507107054</v>
       </c>
       <c r="L38" t="n">
-        <v>809.0358625400456</v>
+        <v>809.0358625400454</v>
       </c>
       <c r="M38" t="n">
-        <v>1136.638748787554</v>
+        <v>1136.638748787553</v>
       </c>
       <c r="N38" t="n">
         <v>1469.542592232819</v>
@@ -7198,28 +7198,28 @@
         <v>2253.662139923805</v>
       </c>
       <c r="R38" t="n">
-        <v>2370.859237178052</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="S38" t="n">
-        <v>2330.585524857984</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="T38" t="n">
-        <v>2330.585524857984</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="U38" t="n">
-        <v>2071.515509741416</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="V38" t="n">
-        <v>1708.898559675243</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="W38" t="n">
-        <v>1708.898559675243</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="X38" t="n">
-        <v>1289.756096254554</v>
+        <v>1911.443061437295</v>
       </c>
       <c r="Y38" t="n">
-        <v>881.4699725542069</v>
+        <v>1911.443061437295</v>
       </c>
     </row>
     <row r="39">
@@ -7244,22 +7244,22 @@
         <v>163.6827234637261</v>
       </c>
       <c r="G39" t="n">
-        <v>79.31614662250911</v>
+        <v>79.31614662250912</v>
       </c>
       <c r="H39" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I39" t="n">
-        <v>74.36658772664222</v>
+        <v>81.78656726718471</v>
       </c>
       <c r="J39" t="n">
-        <v>168.6788003306393</v>
+        <v>168.6788003306395</v>
       </c>
       <c r="K39" t="n">
-        <v>329.8733934990791</v>
+        <v>329.8733934990793</v>
       </c>
       <c r="L39" t="n">
-        <v>546.6194166623899</v>
+        <v>546.61941666239</v>
       </c>
       <c r="M39" t="n">
         <v>799.5518024445222</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.350915988043</v>
+        <v>1029.369677487777</v>
       </c>
       <c r="C40" t="n">
-        <v>919.7892044712677</v>
+        <v>856.8079659710016</v>
       </c>
       <c r="D40" t="n">
-        <v>753.9112116727904</v>
+        <v>690.9299731725243</v>
       </c>
       <c r="E40" t="n">
-        <v>584.1532079235276</v>
+        <v>521.1719694232617</v>
       </c>
       <c r="F40" t="n">
-        <v>407.4461538852838</v>
+        <v>344.4649153850179</v>
       </c>
       <c r="G40" t="n">
-        <v>242.708765906201</v>
+        <v>179.7275274059352</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I40" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="J40" t="n">
         <v>106.5856360663958</v>
       </c>
       <c r="K40" t="n">
-        <v>203.817577419852</v>
+        <v>478.5760319909876</v>
       </c>
       <c r="L40" t="n">
-        <v>328.2409865665204</v>
+        <v>870.0089837315951</v>
       </c>
       <c r="M40" t="n">
-        <v>915.0286477680884</v>
+        <v>1001.196023227498</v>
       </c>
       <c r="N40" t="n">
-        <v>1485.355155839874</v>
+        <v>1129.26372814164</v>
       </c>
       <c r="O40" t="n">
         <v>1667.224231214333</v>
       </c>
       <c r="P40" t="n">
-        <v>2115.949728296285</v>
+        <v>2115.949728296286</v>
       </c>
       <c r="Q40" t="n">
-        <v>2354.221017386492</v>
+        <v>2354.221017386493</v>
       </c>
       <c r="R40" t="n">
-        <v>2370.859237178052</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="S40" t="n">
-        <v>2226.498790017747</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="T40" t="n">
-        <v>2226.498790017747</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="U40" t="n">
-        <v>1948.11236492513</v>
+        <v>2092.472812085436</v>
       </c>
       <c r="V40" t="n">
-        <v>1661.15685679556</v>
+        <v>1805.517303955866</v>
       </c>
       <c r="W40" t="n">
-        <v>1389.130452381852</v>
+        <v>1533.490899542158</v>
       </c>
       <c r="X40" t="n">
-        <v>1284.16953470703</v>
+        <v>1288.09914487557</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.16953470703</v>
+        <v>1221.188296206764</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1122.526540886214</v>
+        <v>1244.086922620381</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.526540886214</v>
+        <v>805.9444498038042</v>
       </c>
       <c r="D41" t="n">
-        <v>686.6167560606582</v>
+        <v>475.2846143343533</v>
       </c>
       <c r="E41" t="n">
-        <v>317.0521513059672</v>
+        <v>475.2846143343533</v>
       </c>
       <c r="F41" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="G41" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H41" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I41" t="n">
         <v>118.9365917639706</v>
@@ -7414,13 +7414,13 @@
         <v>277.2866545754685</v>
       </c>
       <c r="K41" t="n">
-        <v>514.6123507107056</v>
+        <v>514.6123507107055</v>
       </c>
       <c r="L41" t="n">
-        <v>809.0358625400456</v>
+        <v>809.0358625400455</v>
       </c>
       <c r="M41" t="n">
-        <v>1136.638748787554</v>
+        <v>1136.638748787553</v>
       </c>
       <c r="N41" t="n">
         <v>1469.542592232819</v>
@@ -7435,28 +7435,28 @@
         <v>2253.662139923805</v>
       </c>
       <c r="R41" t="n">
-        <v>2370.859237178052</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="S41" t="n">
-        <v>2330.585524857984</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="T41" t="n">
-        <v>2330.585524857984</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="U41" t="n">
-        <v>2330.585524857984</v>
+        <v>2071.515509741417</v>
       </c>
       <c r="V41" t="n">
-        <v>1967.968574791811</v>
+        <v>2071.515509741417</v>
       </c>
       <c r="W41" t="n">
-        <v>1967.968574791811</v>
+        <v>2071.515509741417</v>
       </c>
       <c r="X41" t="n">
-        <v>1548.826111371121</v>
+        <v>1652.373046320728</v>
       </c>
       <c r="Y41" t="n">
-        <v>1548.826111371121</v>
+        <v>1244.086922620381</v>
       </c>
     </row>
     <row r="42">
@@ -7481,10 +7481,10 @@
         <v>163.6827234637261</v>
       </c>
       <c r="G42" t="n">
-        <v>79.31614662250911</v>
+        <v>79.31614662250912</v>
       </c>
       <c r="H42" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I42" t="n">
         <v>81.78656726718471</v>
@@ -7499,16 +7499,16 @@
         <v>554.0393962029324</v>
       </c>
       <c r="M42" t="n">
-        <v>806.9717819850647</v>
+        <v>806.9717819850646</v>
       </c>
       <c r="N42" t="n">
         <v>1066.598535395047</v>
       </c>
       <c r="O42" t="n">
-        <v>1296.686313021258</v>
+        <v>1304.1062925618</v>
       </c>
       <c r="P42" t="n">
-        <v>1487.307227201325</v>
+        <v>1494.727206741867</v>
       </c>
       <c r="Q42" t="n">
         <v>1614.73226019082</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.5929122387799</v>
+        <v>750.9064739707162</v>
       </c>
       <c r="C43" t="n">
-        <v>750.0312007220049</v>
+        <v>578.3447624539411</v>
       </c>
       <c r="D43" t="n">
-        <v>584.1532079235276</v>
+        <v>412.4667696554638</v>
       </c>
       <c r="E43" t="n">
-        <v>584.1532079235276</v>
+        <v>242.7087659062011</v>
       </c>
       <c r="F43" t="n">
-        <v>407.4461538852838</v>
+        <v>242.7087659062011</v>
       </c>
       <c r="G43" t="n">
-        <v>242.708765906201</v>
+        <v>242.7087659062011</v>
       </c>
       <c r="H43" t="n">
         <v>110.3984232438269</v>
       </c>
       <c r="I43" t="n">
-        <v>47.41718474356104</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="J43" t="n">
         <v>106.5856360663958</v>
@@ -7575,46 +7575,46 @@
         <v>203.817577419852</v>
       </c>
       <c r="L43" t="n">
-        <v>746.4508683344815</v>
+        <v>328.2409865665204</v>
       </c>
       <c r="M43" t="n">
-        <v>1333.238529536049</v>
+        <v>915.0286477680885</v>
       </c>
       <c r="N43" t="n">
-        <v>1903.565037607836</v>
+        <v>1485.355155839875</v>
       </c>
       <c r="O43" t="n">
-        <v>2182.923900049007</v>
+        <v>2023.315658912568</v>
       </c>
       <c r="P43" t="n">
         <v>2284.142503160617</v>
       </c>
       <c r="Q43" t="n">
-        <v>2354.221017386492</v>
+        <v>2354.221017386493</v>
       </c>
       <c r="R43" t="n">
-        <v>2370.859237178052</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="S43" t="n">
-        <v>2370.859237178052</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="T43" t="n">
-        <v>2370.859237178052</v>
+        <v>2128.628217008255</v>
       </c>
       <c r="U43" t="n">
-        <v>2092.472812085435</v>
+        <v>1974.518430585461</v>
       </c>
       <c r="V43" t="n">
-        <v>1859.249360723955</v>
+        <v>1687.562922455891</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.222956310246</v>
+        <v>1415.536518042183</v>
       </c>
       <c r="X43" t="n">
-        <v>1341.831201643659</v>
+        <v>1170.144763375595</v>
       </c>
       <c r="Y43" t="n">
-        <v>1114.411530957767</v>
+        <v>942.7250926897034</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1178.694325738464</v>
+        <v>1783.11161681819</v>
       </c>
       <c r="C44" t="n">
-        <v>1178.694325738464</v>
+        <v>1344.969144001614</v>
       </c>
       <c r="D44" t="n">
-        <v>1178.694325738464</v>
+        <v>909.0593591760581</v>
       </c>
       <c r="E44" t="n">
-        <v>744.9195808967595</v>
+        <v>475.2846143343533</v>
       </c>
       <c r="F44" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="G44" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H44" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I44" t="n">
         <v>118.9365917639705</v>
@@ -7654,10 +7654,10 @@
         <v>514.6123507107056</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0358625400461</v>
+        <v>809.0358625400456</v>
       </c>
       <c r="M44" t="n">
-        <v>1136.638748787554</v>
+        <v>1136.638748787553</v>
       </c>
       <c r="N44" t="n">
         <v>1469.542592232819</v>
@@ -7678,22 +7678,22 @@
         <v>2330.585524857985</v>
       </c>
       <c r="T44" t="n">
-        <v>2118.851283005808</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="U44" t="n">
-        <v>1859.781267889241</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="V44" t="n">
-        <v>1859.781267889241</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="W44" t="n">
-        <v>1859.781267889241</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="X44" t="n">
-        <v>1440.638804468551</v>
+        <v>2209.411187303098</v>
       </c>
       <c r="Y44" t="n">
-        <v>1440.638804468551</v>
+        <v>2209.411187303098</v>
       </c>
     </row>
     <row r="45">
@@ -7721,22 +7721,22 @@
         <v>79.31614662250912</v>
       </c>
       <c r="H45" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I45" t="n">
-        <v>81.78656726718472</v>
+        <v>81.78656726718471</v>
       </c>
       <c r="J45" t="n">
-        <v>176.0987798711818</v>
+        <v>168.6788003306395</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2933730396216</v>
+        <v>329.8733934990793</v>
       </c>
       <c r="L45" t="n">
-        <v>554.0393962029324</v>
+        <v>546.61941666239</v>
       </c>
       <c r="M45" t="n">
-        <v>806.9717819850647</v>
+        <v>799.5518024445222</v>
       </c>
       <c r="N45" t="n">
         <v>1059.178555854504</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.6611428071756</v>
+        <v>1041.251300683866</v>
       </c>
       <c r="C46" t="n">
-        <v>727.6611428071756</v>
+        <v>868.6895891670905</v>
       </c>
       <c r="D46" t="n">
-        <v>727.6611428071756</v>
+        <v>702.8115963686132</v>
       </c>
       <c r="E46" t="n">
-        <v>557.9031390579128</v>
+        <v>533.0535926193504</v>
       </c>
       <c r="F46" t="n">
-        <v>381.196085019669</v>
+        <v>356.3465385811066</v>
       </c>
       <c r="G46" t="n">
-        <v>216.4586970405863</v>
+        <v>242.7087659062011</v>
       </c>
       <c r="H46" t="n">
         <v>110.3984232438269</v>
       </c>
       <c r="I46" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="J46" t="n">
-        <v>106.5856360663959</v>
+        <v>193.1653212310857</v>
       </c>
       <c r="K46" t="n">
-        <v>203.817577419852</v>
+        <v>327.3756928169657</v>
       </c>
       <c r="L46" t="n">
-        <v>427.7501805739505</v>
+        <v>870.0089837315951</v>
       </c>
       <c r="M46" t="n">
-        <v>558.9372200698538</v>
+        <v>1001.196023227498</v>
       </c>
       <c r="N46" t="n">
         <v>1129.26372814164</v>
@@ -7836,22 +7836,22 @@
         <v>2226.498790017748</v>
       </c>
       <c r="T46" t="n">
-        <v>1984.26776984795</v>
+        <v>1984.267769847949</v>
       </c>
       <c r="U46" t="n">
-        <v>1705.881344755333</v>
+        <v>1705.881344755332</v>
       </c>
       <c r="V46" t="n">
-        <v>1418.925836625763</v>
+        <v>1705.881344755332</v>
       </c>
       <c r="W46" t="n">
-        <v>1146.899432212055</v>
+        <v>1705.881344755332</v>
       </c>
       <c r="X46" t="n">
-        <v>1146.899432212055</v>
+        <v>1460.489590088745</v>
       </c>
       <c r="Y46" t="n">
-        <v>919.4797615261627</v>
+        <v>1233.069919402853</v>
       </c>
     </row>
   </sheetData>
@@ -8610,22 +8610,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.879322544957828</v>
       </c>
       <c r="K10" t="n">
-        <v>34.45295969778792</v>
+        <v>34.45295969778793</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>32.53395007869803</v>
       </c>
       <c r="M10" t="n">
-        <v>3.446552048878814</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>32.96672057477706</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>34.17160518172662</v>
@@ -8850,25 +8850,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>73.76621815328178</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>183.7264897849188</v>
+        <v>460.20264818754</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9090,19 +9090,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>460.2026481875401</v>
+        <v>460.2026481875399</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>234.11171352715</v>
+        <v>162.6945541356145</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>270.4060291633959</v>
       </c>
       <c r="M19" t="n">
-        <v>100.5143373812425</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,22 +9558,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>100.5143373812425</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>183.7264897849179</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>198.8081217205541</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>417.4358458021275</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>5.730076405535328</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>93.7617997087504</v>
       </c>
       <c r="L25" t="n">
-        <v>252.633186539366</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
@@ -9813,7 +9813,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9877,7 +9877,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>5.730076405535328</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>5.730076405506452</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10032,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>252.6331865393365</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>376.0621247563065</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5.730076405534419</v>
       </c>
       <c r="L29" t="n">
-        <v>450.9503654164403</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>165.293602106248</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,19 +10269,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>252.6331865393722</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>376.0621247563056</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>5.730076405534874</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>71.40724663928813</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>544.8367208833929</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10515,10 +10515,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>16.79028839978582</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>376.0621247563056</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>124.8061771688018</v>
       </c>
       <c r="L37" t="n">
-        <v>182.2523812416656</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10983,19 +10983,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>269.7066086807466</v>
       </c>
       <c r="M40" t="n">
-        <v>460.20264818754</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>64.22002174499585</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11223,19 +11223,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>460.20264818754</v>
+        <v>460.2026481875401</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>162.6945541356149</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>161.2204455923625</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11454,19 +11454,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>37.35194972972107</v>
       </c>
       <c r="L46" t="n">
-        <v>100.5143373812425</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.49929442858</v>
+        <v>180.2108339727726</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>150.6810916778801</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.5845581001173</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>104.6351904299733</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>163.0900140992919</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>130.9872392357504</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>144.2958093386582</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.616899433655</v>
@@ -23554,13 +23554,13 @@
         <v>256.4793149654022</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>101.6287330640383</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23661,7 +23661,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>264.8215162006267</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>34.40966637359415</v>
       </c>
     </row>
     <row r="17">
@@ -23734,16 +23734,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>162.405564986232</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>395.49929442858</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>233.7129687877519</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>71.4032167952307</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H19" t="n">
-        <v>81.80064345492056</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.35142611526319</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>395.49929442858</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>256.4793149654022</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>189.4743901500237</v>
       </c>
       <c r="Y20" t="n">
-        <v>106.3608551489215</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>67.56200595395396</v>
       </c>
       <c r="I22" t="n">
-        <v>13.99482256028901</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>39.87097519686765</v>
       </c>
       <c r="T23" t="n">
-        <v>180.9071996510203</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>243.4861665894083</v>
       </c>
     </row>
     <row r="24">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>303.3163635977907</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>296.5229317652201</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>209.616899433655</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>266.9386168967821</v>
+        <v>77.66528718292369</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>31.22084422917769</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>0.9889826207065653</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>29.01048311807403</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>316.7219469542326</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>294.9884446071445</v>
       </c>
       <c r="G35" t="n">
         <v>395.49929442858</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U35" t="n">
         <v>256.4793149654022</v>
@@ -25219,7 +25219,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>104.6351904299729</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H37" t="n">
         <v>130.9872392357504</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.35142611526319</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6025608416909</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>197.3909124915395</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.337721473340537</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>294.9884446071445</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H38" t="n">
         <v>266.9386168967821</v>
@@ -25447,10 +25447,10 @@
         <v>209.616899433655</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.35142611526319</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T40" t="n">
         <v>239.8087099681002</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>139.0265286218479</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>158.9037337969146</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>104.1974498625435</v>
       </c>
       <c r="E41" t="n">
-        <v>63.56803868614372</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.49929442858</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>209.616899433655</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>142.9168426887021</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8087099681002</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>123.033872283125</v>
       </c>
       <c r="V43" t="n">
-        <v>53.19473620040833</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.7115408372726</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>395.49929442858</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25930,7 +25930,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>294.9884446071445</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>50.58861915113536</v>
       </c>
       <c r="H46" t="n">
-        <v>25.98756817695863</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>323907.0092371581</v>
+        <v>323907.009237158</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>323907.0092371581</v>
+        <v>323907.009237158</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>413644.3947796547</v>
+        <v>413644.3947796583</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>413644.3947796592</v>
+        <v>413644.3947796582</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>323907.009237158</v>
+        <v>323907.0092371581</v>
       </c>
     </row>
     <row r="14">
@@ -26316,7 +26316,7 @@
         <v>405623.0904895886</v>
       </c>
       <c r="C2" t="n">
-        <v>405623.0904895887</v>
+        <v>405623.0904895885</v>
       </c>
       <c r="D2" t="n">
         <v>415514.1729150666</v>
@@ -26328,22 +26328,22 @@
         <v>244655.8061194218</v>
       </c>
       <c r="G2" t="n">
-        <v>244655.8061194218</v>
+        <v>244655.8061194219</v>
       </c>
       <c r="H2" t="n">
-        <v>244655.8061194218</v>
+        <v>244655.8061194217</v>
       </c>
       <c r="I2" t="n">
+        <v>293149.4175315853</v>
+      </c>
+      <c r="J2" t="n">
         <v>293149.4175315852</v>
       </c>
-      <c r="J2" t="n">
-        <v>293149.4175315829</v>
-      </c>
       <c r="K2" t="n">
-        <v>293149.4175315858</v>
+        <v>293149.4175315852</v>
       </c>
       <c r="L2" t="n">
-        <v>293149.4175315853</v>
+        <v>293149.4175315852</v>
       </c>
       <c r="M2" t="n">
         <v>244655.8061194218</v>
@@ -26355,7 +26355,7 @@
         <v>244655.8061194218</v>
       </c>
       <c r="P2" t="n">
-        <v>244655.8061194219</v>
+        <v>244655.806119422</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>40883.89454475579</v>
       </c>
       <c r="E3" t="n">
-        <v>514944.3509551202</v>
+        <v>514944.35095512</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41386.09437926609</v>
+        <v>41386.09437926615</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.376856358508425e-10</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.34074832405895e-09</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10456.45543630128</v>
+        <v>10456.45543630177</v>
       </c>
       <c r="M3" t="n">
-        <v>98626.66051350009</v>
+        <v>98626.66051350006</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>294349.6920770005</v>
+        <v>294349.6920770006</v>
       </c>
       <c r="E4" t="n">
-        <v>16583.60067171038</v>
+        <v>16583.60067171037</v>
       </c>
       <c r="F4" t="n">
-        <v>16583.60067171037</v>
+        <v>16583.60067171036</v>
       </c>
       <c r="G4" t="n">
         <v>16583.60067171038</v>
       </c>
       <c r="H4" t="n">
-        <v>16583.60067171038</v>
+        <v>16583.60067171037</v>
       </c>
       <c r="I4" t="n">
-        <v>45408.65875017082</v>
+        <v>45408.65875017083</v>
       </c>
       <c r="J4" t="n">
-        <v>45408.65875016946</v>
+        <v>45408.65875017083</v>
       </c>
       <c r="K4" t="n">
-        <v>45408.65875017113</v>
+        <v>45408.65875017078</v>
       </c>
       <c r="L4" t="n">
         <v>45408.6587501708</v>
@@ -26453,10 +26453,10 @@
         <v>16583.60067171038</v>
       </c>
       <c r="N4" t="n">
-        <v>16583.60067171034</v>
+        <v>16583.60067171038</v>
       </c>
       <c r="O4" t="n">
-        <v>16583.60067171034</v>
+        <v>16583.60067171037</v>
       </c>
       <c r="P4" t="n">
         <v>16583.60067171038</v>
@@ -26478,37 +26478,37 @@
         <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
-        <v>46256.55073973801</v>
+        <v>46256.550739738</v>
       </c>
       <c r="F5" t="n">
-        <v>46256.55073973801</v>
+        <v>46256.55073973799</v>
       </c>
       <c r="G5" t="n">
         <v>46256.55073973801</v>
       </c>
       <c r="H5" t="n">
-        <v>46256.55073973801</v>
+        <v>46256.55073973799</v>
       </c>
       <c r="I5" t="n">
         <v>55719.03974308629</v>
       </c>
       <c r="J5" t="n">
-        <v>55719.03974308584</v>
+        <v>55719.03974308629</v>
       </c>
       <c r="K5" t="n">
-        <v>55719.03974308639</v>
+        <v>55719.03974308627</v>
       </c>
       <c r="L5" t="n">
         <v>55719.03974308628</v>
       </c>
       <c r="M5" t="n">
-        <v>46256.550739738</v>
+        <v>46256.55073973801</v>
       </c>
       <c r="N5" t="n">
-        <v>46256.550739738</v>
+        <v>46256.55073973801</v>
       </c>
       <c r="O5" t="n">
-        <v>46256.550739738</v>
+        <v>46256.55073973801</v>
       </c>
       <c r="P5" t="n">
         <v>46256.55073973801</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73264.77417775575</v>
+        <v>73232.86746025419</v>
       </c>
       <c r="C6" t="n">
-        <v>73264.77417775587</v>
+        <v>73232.86746025407</v>
       </c>
       <c r="D6" t="n">
-        <v>43427.01648310015</v>
+        <v>43427.01648310009</v>
       </c>
       <c r="E6" t="n">
-        <v>-333128.6962471467</v>
+        <v>-333679.852269068</v>
       </c>
       <c r="F6" t="n">
-        <v>181815.6547079734</v>
+        <v>181264.498686052</v>
       </c>
       <c r="G6" t="n">
-        <v>181815.6547079735</v>
+        <v>181264.498686052</v>
       </c>
       <c r="H6" t="n">
-        <v>181815.6547079735</v>
+        <v>181264.4986860519</v>
       </c>
       <c r="I6" t="n">
-        <v>150635.624659062</v>
+        <v>150240.8996416959</v>
       </c>
       <c r="J6" t="n">
-        <v>192021.7190383296</v>
+        <v>191626.994020962</v>
       </c>
       <c r="K6" t="n">
-        <v>192021.7190383259</v>
+        <v>191626.9940209621</v>
       </c>
       <c r="L6" t="n">
-        <v>181565.2636020269</v>
+        <v>181170.5385846603</v>
       </c>
       <c r="M6" t="n">
-        <v>83188.99419447337</v>
+        <v>82637.83817255197</v>
       </c>
       <c r="N6" t="n">
-        <v>181815.6547079735</v>
+        <v>181264.498686052</v>
       </c>
       <c r="O6" t="n">
-        <v>181815.6547079735</v>
+        <v>181264.498686052</v>
       </c>
       <c r="P6" t="n">
-        <v>181815.6547079735</v>
+        <v>181264.4986860521</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>468.7839603042023</v>
+        <v>468.7839603042021</v>
       </c>
       <c r="F3" t="n">
-        <v>468.7839603042022</v>
+        <v>468.7839603042021</v>
       </c>
       <c r="G3" t="n">
         <v>468.7839603042022</v>
       </c>
       <c r="H3" t="n">
-        <v>468.7839603042022</v>
+        <v>468.7839603042021</v>
       </c>
       <c r="I3" t="n">
-        <v>468.7839603042022</v>
+        <v>468.7839603042021</v>
       </c>
       <c r="J3" t="n">
-        <v>468.7839603042022</v>
+        <v>468.7839603042021</v>
       </c>
       <c r="K3" t="n">
-        <v>468.7839603042022</v>
+        <v>468.7839603042021</v>
       </c>
       <c r="L3" t="n">
-        <v>468.7839603042022</v>
+        <v>468.7839603042021</v>
       </c>
       <c r="M3" t="n">
         <v>468.7839603042022</v>
       </c>
       <c r="N3" t="n">
-        <v>468.7839603042023</v>
+        <v>468.7839603042022</v>
       </c>
       <c r="O3" t="n">
-        <v>468.7839603042023</v>
+        <v>468.7839603042022</v>
       </c>
       <c r="P3" t="n">
-        <v>468.7839603042023</v>
+        <v>468.7839603042022</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>592.7148092945132</v>
+        <v>592.7148092945131</v>
       </c>
       <c r="F4" t="n">
-        <v>592.7148092945132</v>
+        <v>592.714809294513</v>
       </c>
       <c r="G4" t="n">
         <v>592.7148092945132</v>
       </c>
       <c r="H4" t="n">
-        <v>592.7148092945132</v>
+        <v>592.714809294513</v>
       </c>
       <c r="I4" t="n">
         <v>748.3478521127415</v>
       </c>
       <c r="J4" t="n">
-        <v>748.3478521127341</v>
+        <v>748.3478521127415</v>
       </c>
       <c r="K4" t="n">
-        <v>748.3478521127432</v>
+        <v>748.3478521127413</v>
       </c>
       <c r="L4" t="n">
         <v>748.3478521127414</v>
       </c>
       <c r="M4" t="n">
-        <v>592.7148092945131</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="N4" t="n">
-        <v>592.7148092945131</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="O4" t="n">
-        <v>592.7148092945131</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="P4" t="n">
-        <v>592.7148092945133</v>
+        <v>592.7148092945132</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>436.0308582436306</v>
+        <v>436.0308582436305</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>551.3998062469858</v>
+        <v>551.3998062469857</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>155.6330428182283</v>
+        <v>155.6330428182285</v>
       </c>
       <c r="J4" t="n">
-        <v>-5.56902915444403e-12</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>9.094947017729282e-12</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>41.31500304752553</v>
+        <v>41.31500304752746</v>
       </c>
       <c r="M4" t="n">
-        <v>395.7667634287575</v>
+        <v>395.7667634287574</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M4" t="n">
-        <v>551.3998062469858</v>
+        <v>551.3998062469857</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27940,16 +27940,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>56.11184910989698</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>43.14578572036749</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,22 +27982,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>61.51230405132225</v>
+        <v>20.19730100379491</v>
       </c>
       <c r="T9" t="n">
         <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5685466570983</v>
+        <v>133.2535436095709</v>
       </c>
       <c r="V9" t="n">
         <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>116.9285067192467</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.5101778475351</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -28025,13 +28025,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>122.5612962059744</v>
+        <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
-        <v>96.66302601383403</v>
+        <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
-        <v>44.68216206888225</v>
+        <v>85.99716511640959</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>156.6196485125224</v>
@@ -28067,16 +28067,16 @@
         <v>243.1682919906331</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6454491228296</v>
+        <v>234.3304460753022</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>225.0955395699384</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -31758,43 +31758,43 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I11" t="n">
-        <v>72.65444675227241</v>
+        <v>72.65444675227238</v>
       </c>
       <c r="J11" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K11" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L11" t="n">
-        <v>297.3974866963031</v>
+        <v>297.397486696303</v>
       </c>
       <c r="M11" t="n">
-        <v>330.9120063106141</v>
+        <v>330.9120063106139</v>
       </c>
       <c r="N11" t="n">
-        <v>336.2665085305712</v>
+        <v>336.266508530571</v>
       </c>
       <c r="O11" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098679</v>
       </c>
       <c r="P11" t="n">
-        <v>271.0018873233956</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.5111312293484</v>
+        <v>203.5111312293483</v>
       </c>
       <c r="R11" t="n">
         <v>118.3809063174225</v>
       </c>
       <c r="S11" t="n">
-        <v>42.94437988113371</v>
+        <v>42.9443798811337</v>
       </c>
       <c r="T11" t="n">
-        <v>8.249655422036763</v>
+        <v>8.24965542203676</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1507646907511001</v>
+        <v>0.1507646907511</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.00832776367319</v>
+        <v>1.008327763673189</v>
       </c>
       <c r="H12" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791067</v>
       </c>
       <c r="I12" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J12" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615866</v>
       </c>
       <c r="K12" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L12" t="n">
-        <v>218.9353769326371</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M12" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N12" t="n">
-        <v>254.754317039838</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O12" t="n">
-        <v>239.9068254209628</v>
+        <v>239.9068254209627</v>
       </c>
       <c r="P12" t="n">
-        <v>192.5463779596638</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.7121545348444</v>
+        <v>128.7121545348443</v>
       </c>
       <c r="R12" t="n">
-        <v>62.60477115156877</v>
+        <v>55.10984232273836</v>
       </c>
       <c r="S12" t="n">
-        <v>18.72924596121033</v>
+        <v>18.72924596121032</v>
       </c>
       <c r="T12" t="n">
-        <v>4.064268486033601</v>
+        <v>4.064268486033599</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323617</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8453481251387253</v>
+        <v>0.8453481251387249</v>
       </c>
       <c r="H13" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778851</v>
       </c>
       <c r="I13" t="n">
-        <v>25.42192361780822</v>
+        <v>25.42192361780821</v>
       </c>
       <c r="J13" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K13" t="n">
-        <v>98.21408217520825</v>
+        <v>98.2140821752082</v>
       </c>
       <c r="L13" t="n">
-        <v>125.6802112592611</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M13" t="n">
-        <v>132.5121611069731</v>
+        <v>132.512161106973</v>
       </c>
       <c r="N13" t="n">
-        <v>129.3613180950925</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O13" t="n">
-        <v>119.486114996881</v>
+        <v>119.4861149968809</v>
       </c>
       <c r="P13" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.78637800593454</v>
+        <v>70.78637800593451</v>
       </c>
       <c r="R13" t="n">
-        <v>38.00992569941941</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S13" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T13" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04610989773483962</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32001,13 +32001,13 @@
         <v>159.9495583954524</v>
       </c>
       <c r="K14" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L14" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M14" t="n">
-        <v>330.9120063106141</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N14" t="n">
         <v>336.2665085305711</v>
@@ -32071,13 +32071,13 @@
         <v>1.00832776367319</v>
       </c>
       <c r="H15" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I15" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J15" t="n">
-        <v>95.26486121615869</v>
+        <v>87.76993238732834</v>
       </c>
       <c r="K15" t="n">
         <v>162.8228213822624</v>
@@ -32086,16 +32086,16 @@
         <v>218.9353769326371</v>
       </c>
       <c r="M15" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N15" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O15" t="n">
         <v>239.9068254209628</v>
       </c>
       <c r="P15" t="n">
-        <v>185.0514491308331</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q15" t="n">
         <v>128.7121545348444</v>
@@ -32110,7 +32110,7 @@
         <v>4.0642684860336</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8453481251387251</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H16" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I16" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J16" t="n">
-        <v>59.76611244730787</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K16" t="n">
-        <v>98.21408217520823</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L16" t="n">
         <v>125.680211259261</v>
@@ -32174,22 +32174,22 @@
         <v>119.4861149968809</v>
       </c>
       <c r="P16" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q16" t="n">
         <v>70.78637800593452</v>
       </c>
       <c r="R16" t="n">
-        <v>38.0099256994194</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S16" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T16" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04610989773483961</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,7 +32314,7 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J18" t="n">
-        <v>87.76993238732811</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K18" t="n">
         <v>162.8228213822624</v>
@@ -32326,7 +32326,7 @@
         <v>255.4872583657902</v>
       </c>
       <c r="N18" t="n">
-        <v>262.2492458686688</v>
+        <v>254.7543170398382</v>
       </c>
       <c r="O18" t="n">
         <v>239.9068254209628</v>
@@ -32475,13 +32475,13 @@
         <v>159.9495583954524</v>
       </c>
       <c r="K20" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L20" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M20" t="n">
-        <v>330.9120063106141</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N20" t="n">
         <v>336.2665085305711</v>
@@ -32545,13 +32545,13 @@
         <v>1.00832776367319</v>
       </c>
       <c r="H21" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I21" t="n">
-        <v>34.71654800366026</v>
+        <v>27.22161917482991</v>
       </c>
       <c r="J21" t="n">
-        <v>95.26486121615869</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K21" t="n">
         <v>162.8228213822624</v>
@@ -32560,16 +32560,16 @@
         <v>218.9353769326371</v>
       </c>
       <c r="M21" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N21" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O21" t="n">
         <v>239.9068254209628</v>
       </c>
       <c r="P21" t="n">
-        <v>185.0514491308331</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q21" t="n">
         <v>128.7121545348444</v>
@@ -32584,7 +32584,7 @@
         <v>4.0642684860336</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8453481251387251</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H22" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I22" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J22" t="n">
-        <v>59.76611244730787</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K22" t="n">
-        <v>98.21408217520823</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L22" t="n">
         <v>125.680211259261</v>
@@ -32648,22 +32648,22 @@
         <v>119.4861149968809</v>
       </c>
       <c r="P22" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q22" t="n">
         <v>70.78637800593452</v>
       </c>
       <c r="R22" t="n">
-        <v>38.0099256994194</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S22" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T22" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04610989773483961</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32712,13 +32712,13 @@
         <v>159.9495583954524</v>
       </c>
       <c r="K23" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L23" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M23" t="n">
-        <v>330.9120063106141</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N23" t="n">
         <v>336.2665085305711</v>
@@ -32782,13 +32782,13 @@
         <v>1.00832776367319</v>
       </c>
       <c r="H24" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I24" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J24" t="n">
-        <v>95.26486121615869</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K24" t="n">
         <v>162.8228213822624</v>
@@ -32797,10 +32797,10 @@
         <v>218.9353769326371</v>
       </c>
       <c r="M24" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N24" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O24" t="n">
         <v>239.9068254209628</v>
@@ -32809,10 +32809,10 @@
         <v>192.5463779596637</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.7121545348444</v>
+        <v>121.217225706014</v>
       </c>
       <c r="R24" t="n">
-        <v>55.10984232273813</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S24" t="n">
         <v>18.72924596121033</v>
@@ -32821,7 +32821,7 @@
         <v>4.0642684860336</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8453481251387251</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H25" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I25" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J25" t="n">
-        <v>59.76611244730787</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K25" t="n">
-        <v>98.21408217520823</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L25" t="n">
         <v>125.680211259261</v>
@@ -32885,22 +32885,22 @@
         <v>119.4861149968809</v>
       </c>
       <c r="P25" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q25" t="n">
         <v>70.78637800593452</v>
       </c>
       <c r="R25" t="n">
-        <v>38.0099256994194</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S25" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T25" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04610989773483961</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32949,13 +32949,13 @@
         <v>159.9495583954524</v>
       </c>
       <c r="K26" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L26" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M26" t="n">
-        <v>330.9120063106141</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N26" t="n">
         <v>336.2665085305711</v>
@@ -33019,13 +33019,13 @@
         <v>1.00832776367319</v>
       </c>
       <c r="H27" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I27" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J27" t="n">
-        <v>95.26486121615869</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K27" t="n">
         <v>162.8228213822624</v>
@@ -33034,13 +33034,13 @@
         <v>218.9353769326371</v>
       </c>
       <c r="M27" t="n">
-        <v>247.9923295369595</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N27" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O27" t="n">
-        <v>239.9068254209628</v>
+        <v>232.4118965921325</v>
       </c>
       <c r="P27" t="n">
         <v>192.5463779596637</v>
@@ -33058,7 +33058,7 @@
         <v>4.0642684860336</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8453481251387251</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H28" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I28" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J28" t="n">
-        <v>59.76611244730787</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K28" t="n">
-        <v>98.21408217520823</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L28" t="n">
         <v>125.680211259261</v>
@@ -33122,22 +33122,22 @@
         <v>119.4861149968809</v>
       </c>
       <c r="P28" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q28" t="n">
         <v>70.78637800593452</v>
       </c>
       <c r="R28" t="n">
-        <v>38.0099256994194</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S28" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T28" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04610989773483961</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33186,13 +33186,13 @@
         <v>159.9495583954524</v>
       </c>
       <c r="K29" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L29" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M29" t="n">
-        <v>330.9120063106141</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N29" t="n">
         <v>336.2665085305711</v>
@@ -33256,13 +33256,13 @@
         <v>1.00832776367319</v>
       </c>
       <c r="H30" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I30" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J30" t="n">
-        <v>95.26486121615869</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K30" t="n">
         <v>162.8228213822624</v>
@@ -33271,10 +33271,10 @@
         <v>218.9353769326371</v>
       </c>
       <c r="M30" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N30" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O30" t="n">
         <v>239.9068254209628</v>
@@ -33283,10 +33283,10 @@
         <v>192.5463779596637</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.7121545348444</v>
+        <v>121.217225706014</v>
       </c>
       <c r="R30" t="n">
-        <v>55.10984232273813</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S30" t="n">
         <v>18.72924596121033</v>
@@ -33295,7 +33295,7 @@
         <v>4.0642684860336</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8453481251387251</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H31" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I31" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J31" t="n">
-        <v>59.76611244730787</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K31" t="n">
-        <v>98.21408217520823</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L31" t="n">
         <v>125.680211259261</v>
@@ -33359,22 +33359,22 @@
         <v>119.4861149968809</v>
       </c>
       <c r="P31" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q31" t="n">
         <v>70.78637800593452</v>
       </c>
       <c r="R31" t="n">
-        <v>38.0099256994194</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S31" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T31" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04610989773483961</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33423,13 +33423,13 @@
         <v>159.9495583954524</v>
       </c>
       <c r="K32" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L32" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M32" t="n">
-        <v>330.9120063106141</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N32" t="n">
         <v>336.2665085305711</v>
@@ -33493,13 +33493,13 @@
         <v>1.00832776367319</v>
       </c>
       <c r="H33" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I33" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J33" t="n">
-        <v>87.76993238732823</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K33" t="n">
         <v>162.8228213822624</v>
@@ -33508,10 +33508,10 @@
         <v>218.9353769326371</v>
       </c>
       <c r="M33" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N33" t="n">
-        <v>262.2492458686688</v>
+        <v>254.7543170398383</v>
       </c>
       <c r="O33" t="n">
         <v>239.9068254209628</v>
@@ -33532,7 +33532,7 @@
         <v>4.0642684860336</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8453481251387251</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H34" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I34" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J34" t="n">
-        <v>59.76611244730787</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K34" t="n">
-        <v>98.21408217520823</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L34" t="n">
         <v>125.680211259261</v>
@@ -33596,22 +33596,22 @@
         <v>119.4861149968809</v>
       </c>
       <c r="P34" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q34" t="n">
         <v>70.78637800593452</v>
       </c>
       <c r="R34" t="n">
-        <v>38.0099256994194</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S34" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T34" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04610989773483961</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33736,7 +33736,7 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J36" t="n">
-        <v>87.76993238732811</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K36" t="n">
         <v>162.8228213822624</v>
@@ -33754,7 +33754,7 @@
         <v>239.9068254209628</v>
       </c>
       <c r="P36" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308331</v>
       </c>
       <c r="Q36" t="n">
         <v>128.7121545348444</v>
@@ -33891,7 +33891,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I38" t="n">
-        <v>72.65444675227241</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J38" t="n">
         <v>159.9495583954524</v>
@@ -33906,10 +33906,10 @@
         <v>330.9120063106141</v>
       </c>
       <c r="N38" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O38" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098679</v>
       </c>
       <c r="P38" t="n">
         <v>271.0018873233956</v>
@@ -33924,7 +33924,7 @@
         <v>42.94437988113371</v>
       </c>
       <c r="T38" t="n">
-        <v>8.249655422036763</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U38" t="n">
         <v>0.1507646907511001</v>
@@ -33970,10 +33970,10 @@
         <v>9.738323401791071</v>
       </c>
       <c r="I39" t="n">
-        <v>27.22161917482948</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J39" t="n">
-        <v>95.26486121615871</v>
+        <v>87.76993238732811</v>
       </c>
       <c r="K39" t="n">
         <v>162.8228213822624</v>
@@ -33991,19 +33991,19 @@
         <v>239.9068254209628</v>
       </c>
       <c r="P39" t="n">
-        <v>192.5463779596638</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q39" t="n">
         <v>128.7121545348444</v>
       </c>
       <c r="R39" t="n">
-        <v>62.60477115156877</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S39" t="n">
         <v>18.72924596121033</v>
       </c>
       <c r="T39" t="n">
-        <v>4.064268486033601</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U39" t="n">
         <v>0.06633735287323619</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8453481251387253</v>
+        <v>0.8453481251387251</v>
       </c>
       <c r="H40" t="n">
         <v>7.515913330778853</v>
       </c>
       <c r="I40" t="n">
-        <v>25.42192361780822</v>
+        <v>25.42192361780821</v>
       </c>
       <c r="J40" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K40" t="n">
-        <v>98.21408217520825</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L40" t="n">
-        <v>125.6802112592611</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M40" t="n">
         <v>132.5121611069731</v>
@@ -34067,16 +34067,16 @@
         <v>129.3613180950925</v>
       </c>
       <c r="O40" t="n">
-        <v>119.486114996881</v>
+        <v>119.4861149968809</v>
       </c>
       <c r="P40" t="n">
         <v>102.2410132440509</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.78637800593454</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R40" t="n">
-        <v>38.00992569941941</v>
+        <v>38.0099256994194</v>
       </c>
       <c r="S40" t="n">
         <v>14.73211232628123</v>
@@ -34085,7 +34085,7 @@
         <v>3.611941989229098</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04610989773483962</v>
+        <v>0.04610989773483961</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I41" t="n">
-        <v>72.65444675227241</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J41" t="n">
         <v>159.9495583954524</v>
@@ -34143,10 +34143,10 @@
         <v>330.9120063106141</v>
       </c>
       <c r="N41" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O41" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098679</v>
       </c>
       <c r="P41" t="n">
         <v>271.0018873233956</v>
@@ -34161,7 +34161,7 @@
         <v>42.94437988113371</v>
       </c>
       <c r="T41" t="n">
-        <v>8.249655422036763</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U41" t="n">
         <v>0.1507646907511001</v>
@@ -34210,7 +34210,7 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J42" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K42" t="n">
         <v>162.8228213822624</v>
@@ -34225,22 +34225,22 @@
         <v>262.2492458686688</v>
       </c>
       <c r="O42" t="n">
-        <v>232.4118965921321</v>
+        <v>239.9068254209628</v>
       </c>
       <c r="P42" t="n">
-        <v>192.5463779596638</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.7121545348444</v>
+        <v>121.2172257060138</v>
       </c>
       <c r="R42" t="n">
-        <v>62.60477115156877</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S42" t="n">
         <v>18.72924596121033</v>
       </c>
       <c r="T42" t="n">
-        <v>4.064268486033601</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U42" t="n">
         <v>0.06633735287323619</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8453481251387253</v>
+        <v>0.8453481251387251</v>
       </c>
       <c r="H43" t="n">
         <v>7.515913330778853</v>
       </c>
       <c r="I43" t="n">
-        <v>25.42192361780822</v>
+        <v>25.42192361780821</v>
       </c>
       <c r="J43" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K43" t="n">
-        <v>98.21408217520825</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L43" t="n">
-        <v>125.6802112592611</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M43" t="n">
         <v>132.5121611069731</v>
@@ -34304,16 +34304,16 @@
         <v>129.3613180950925</v>
       </c>
       <c r="O43" t="n">
-        <v>119.486114996881</v>
+        <v>119.4861149968809</v>
       </c>
       <c r="P43" t="n">
         <v>102.2410132440509</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.78637800593454</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R43" t="n">
-        <v>38.00992569941941</v>
+        <v>38.0099256994194</v>
       </c>
       <c r="S43" t="n">
         <v>14.73211232628123</v>
@@ -34322,7 +34322,7 @@
         <v>3.611941989229098</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04610989773483962</v>
+        <v>0.04610989773483961</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I44" t="n">
-        <v>72.65444675227241</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J44" t="n">
         <v>159.9495583954524</v>
@@ -34380,10 +34380,10 @@
         <v>330.9120063106141</v>
       </c>
       <c r="N44" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O44" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098679</v>
       </c>
       <c r="P44" t="n">
         <v>271.0018873233956</v>
@@ -34398,7 +34398,7 @@
         <v>42.94437988113371</v>
       </c>
       <c r="T44" t="n">
-        <v>8.249655422036763</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U44" t="n">
         <v>0.1507646907511001</v>
@@ -34447,7 +34447,7 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J45" t="n">
-        <v>95.26486121615871</v>
+        <v>87.76993238732811</v>
       </c>
       <c r="K45" t="n">
         <v>162.8228213822624</v>
@@ -34459,25 +34459,25 @@
         <v>255.4872583657902</v>
       </c>
       <c r="N45" t="n">
-        <v>254.754317039838</v>
+        <v>262.2492458686688</v>
       </c>
       <c r="O45" t="n">
         <v>239.9068254209628</v>
       </c>
       <c r="P45" t="n">
-        <v>192.5463779596638</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q45" t="n">
         <v>128.7121545348444</v>
       </c>
       <c r="R45" t="n">
-        <v>62.60477115156877</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S45" t="n">
         <v>18.72924596121033</v>
       </c>
       <c r="T45" t="n">
-        <v>4.064268486033601</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U45" t="n">
         <v>0.06633735287323619</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8453481251387253</v>
+        <v>0.8453481251387251</v>
       </c>
       <c r="H46" t="n">
         <v>7.515913330778853</v>
       </c>
       <c r="I46" t="n">
-        <v>25.42192361780822</v>
+        <v>25.42192361780821</v>
       </c>
       <c r="J46" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K46" t="n">
-        <v>98.21408217520825</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L46" t="n">
-        <v>125.6802112592611</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M46" t="n">
         <v>132.5121611069731</v>
@@ -34541,16 +34541,16 @@
         <v>129.3613180950925</v>
       </c>
       <c r="O46" t="n">
-        <v>119.486114996881</v>
+        <v>119.4861149968809</v>
       </c>
       <c r="P46" t="n">
         <v>102.2410132440509</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.78637800593454</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R46" t="n">
-        <v>38.00992569941941</v>
+        <v>38.0099256994194</v>
       </c>
       <c r="S46" t="n">
         <v>14.73211232628123</v>
@@ -34559,7 +34559,7 @@
         <v>3.611941989229098</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04610989773483962</v>
+        <v>0.04610989773483961</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35330,22 +35330,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.175752044673201</v>
+        <v>8.05507458963103</v>
       </c>
       <c r="K10" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="L10" t="n">
-        <v>8.781052968829307</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="M10" t="n">
-        <v>12.7049412100335</v>
+        <v>9.258389161154682</v>
       </c>
       <c r="N10" t="n">
         <v>9.038245360419708</v>
       </c>
       <c r="O10" t="n">
-        <v>41.31500304752734</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P10" t="n">
         <v>41.31500304752734</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>72.241825273141</v>
+        <v>72.24182527314098</v>
       </c>
       <c r="J11" t="n">
-        <v>159.9495583954522</v>
+        <v>159.9495583954524</v>
       </c>
       <c r="K11" t="n">
-        <v>239.7229253891284</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L11" t="n">
-        <v>297.3974866963032</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M11" t="n">
         <v>330.9120063106141</v>
       </c>
       <c r="N11" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305709</v>
       </c>
       <c r="O11" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098678</v>
       </c>
       <c r="P11" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233957</v>
       </c>
       <c r="Q11" t="n">
         <v>203.5111312293484</v>
       </c>
       <c r="R11" t="n">
-        <v>118.3809063174226</v>
+        <v>118.3809063174222</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J12" t="n">
-        <v>95.26486121615869</v>
+        <v>95.26486121615865</v>
       </c>
       <c r="K12" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L12" t="n">
-        <v>218.9353769326372</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M12" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N12" t="n">
-        <v>254.754317039838</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O12" t="n">
         <v>239.9068254209628</v>
@@ -35512,7 +35512,7 @@
         <v>128.7121545348443</v>
       </c>
       <c r="R12" t="n">
-        <v>62.60477115156868</v>
+        <v>55.10984232273836</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,28 +35570,28 @@
         <v>147.2203398863885</v>
       </c>
       <c r="K13" t="n">
-        <v>375.7478746713049</v>
+        <v>171.98030032849</v>
       </c>
       <c r="L13" t="n">
-        <v>548.1144352673024</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M13" t="n">
-        <v>316.2386508918919</v>
+        <v>592.7148092945131</v>
       </c>
       <c r="N13" t="n">
-        <v>129.3613180950924</v>
+        <v>576.087381890693</v>
       </c>
       <c r="O13" t="n">
-        <v>119.486114996881</v>
+        <v>543.3944475481753</v>
       </c>
       <c r="P13" t="n">
-        <v>453.2580778605577</v>
+        <v>102.2410132440509</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.6780697880881</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R13" t="n">
-        <v>16.80628261773757</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35649,10 +35649,10 @@
         <v>159.9495583954524</v>
       </c>
       <c r="K14" t="n">
-        <v>239.7229253891285</v>
+        <v>239.722925389128</v>
       </c>
       <c r="L14" t="n">
-        <v>297.3974866963031</v>
+        <v>297.3974866963033</v>
       </c>
       <c r="M14" t="n">
         <v>330.9120063106141</v>
@@ -35661,7 +35661,7 @@
         <v>336.2665085305709</v>
       </c>
       <c r="O14" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098678</v>
       </c>
       <c r="P14" t="n">
         <v>271.0018873233957</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.71654800366026</v>
+        <v>34.71654800366025</v>
       </c>
       <c r="J15" t="n">
-        <v>95.26486121615869</v>
+        <v>87.76993238732834</v>
       </c>
       <c r="K15" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L15" t="n">
-        <v>218.9353769326372</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M15" t="n">
         <v>255.4872583657901</v>
@@ -35743,7 +35743,7 @@
         <v>239.9068254209628</v>
       </c>
       <c r="P15" t="n">
-        <v>185.0514491308331</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q15" t="n">
         <v>128.7121545348443</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.76611244730787</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K16" t="n">
         <v>98.21408217520822</v>
       </c>
       <c r="L16" t="n">
-        <v>125.6802112592611</v>
+        <v>548.1144352673025</v>
       </c>
       <c r="M16" t="n">
-        <v>592.7148092945132</v>
+        <v>592.714809294513</v>
       </c>
       <c r="N16" t="n">
-        <v>576.0873818906932</v>
+        <v>576.087381890693</v>
       </c>
       <c r="O16" t="n">
-        <v>353.597828524031</v>
+        <v>282.1806691324955</v>
       </c>
       <c r="P16" t="n">
-        <v>453.2580778605577</v>
+        <v>102.2410132440509</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.78637800593469</v>
+        <v>70.78637800593515</v>
       </c>
       <c r="R16" t="n">
-        <v>16.80628261773756</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>72.24182527314099</v>
       </c>
       <c r="J17" t="n">
-        <v>159.9495583954524</v>
+        <v>159.9495583954526</v>
       </c>
       <c r="K17" t="n">
         <v>239.7229253891282</v>
@@ -35892,16 +35892,16 @@
         <v>297.3974866963031</v>
       </c>
       <c r="M17" t="n">
-        <v>330.9120063106139</v>
+        <v>330.9120063106138</v>
       </c>
       <c r="N17" t="n">
         <v>336.2665085305712</v>
       </c>
       <c r="O17" t="n">
-        <v>317.5269286098678</v>
+        <v>317.526928609868</v>
       </c>
       <c r="P17" t="n">
-        <v>271.0018873233957</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q17" t="n">
         <v>203.5111312293484</v>
@@ -35962,19 +35962,19 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J18" t="n">
-        <v>87.76993238732811</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K18" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L18" t="n">
-        <v>218.9353769326371</v>
+        <v>218.9353769326372</v>
       </c>
       <c r="M18" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N18" t="n">
-        <v>262.2492458686688</v>
+        <v>254.7543170398382</v>
       </c>
       <c r="O18" t="n">
         <v>239.9068254209628</v>
@@ -36047,10 +36047,10 @@
         <v>98.21408217520822</v>
       </c>
       <c r="L19" t="n">
-        <v>125.6802112592611</v>
+        <v>396.086240422657</v>
       </c>
       <c r="M19" t="n">
-        <v>233.0264984882156</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N19" t="n">
         <v>576.0873818906931</v>
@@ -36062,7 +36062,7 @@
         <v>453.2580778605577</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.6780697880881</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R19" t="n">
         <v>16.80628261773756</v>
@@ -36120,7 +36120,7 @@
         <v>72.24182527314099</v>
       </c>
       <c r="J20" t="n">
-        <v>159.9495583954526</v>
+        <v>159.9495583954524</v>
       </c>
       <c r="K20" t="n">
         <v>239.7229253891282</v>
@@ -36135,16 +36135,16 @@
         <v>336.2665085305712</v>
       </c>
       <c r="O20" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098678</v>
       </c>
       <c r="P20" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233957</v>
       </c>
       <c r="Q20" t="n">
         <v>203.5111312293484</v>
       </c>
       <c r="R20" t="n">
-        <v>118.3809063174226</v>
+        <v>118.3809063174222</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.71654800366026</v>
+        <v>27.22161917482991</v>
       </c>
       <c r="J21" t="n">
-        <v>95.26486121615869</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K21" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L21" t="n">
-        <v>218.9353769326372</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M21" t="n">
         <v>255.4872583657901</v>
@@ -36217,7 +36217,7 @@
         <v>239.9068254209628</v>
       </c>
       <c r="P21" t="n">
-        <v>185.0514491308331</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q21" t="n">
         <v>128.7121545348443</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.76611244730787</v>
+        <v>147.2203398863885</v>
       </c>
       <c r="K22" t="n">
-        <v>98.21408217520822</v>
+        <v>375.7478746713048</v>
       </c>
       <c r="L22" t="n">
-        <v>125.6802112592611</v>
+        <v>548.1144352673025</v>
       </c>
       <c r="M22" t="n">
-        <v>233.0264984882156</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N22" t="n">
-        <v>576.0873818906931</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O22" t="n">
-        <v>543.3944475481753</v>
+        <v>303.212604781799</v>
       </c>
       <c r="P22" t="n">
         <v>453.2580778605577</v>
@@ -36302,7 +36302,7 @@
         <v>240.6780697880881</v>
       </c>
       <c r="R22" t="n">
-        <v>16.80628261773756</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>72.24182527314099</v>
       </c>
       <c r="J23" t="n">
-        <v>159.9495583954524</v>
+        <v>599.6007578428442</v>
       </c>
       <c r="K23" t="n">
         <v>239.7229253891282</v>
       </c>
       <c r="L23" t="n">
-        <v>496.2056084168572</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M23" t="n">
-        <v>748.3478521127415</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N23" t="n">
         <v>336.2665085305712</v>
@@ -36378,10 +36378,10 @@
         <v>271.0018873233957</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.5111312293484</v>
+        <v>209.2412076348837</v>
       </c>
       <c r="R23" t="n">
-        <v>118.3809063174226</v>
+        <v>289.2435979871771</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.71654800366026</v>
+        <v>34.71654800366025</v>
       </c>
       <c r="J24" t="n">
-        <v>95.26486121615868</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K24" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L24" t="n">
-        <v>218.9353769326372</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M24" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N24" t="n">
-        <v>262.2492458686687</v>
+        <v>262.2492458686686</v>
       </c>
       <c r="O24" t="n">
         <v>239.9068254209628</v>
@@ -36457,10 +36457,10 @@
         <v>192.5463779596637</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.7121545348443</v>
+        <v>121.217225706014</v>
       </c>
       <c r="R24" t="n">
-        <v>55.10984232273813</v>
+        <v>62.60477115156868</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.76611244730788</v>
+        <v>147.2203398863886</v>
       </c>
       <c r="K25" t="n">
-        <v>98.21408217520823</v>
+        <v>191.9758818839586</v>
       </c>
       <c r="L25" t="n">
-        <v>378.313397798627</v>
+        <v>548.1144352673025</v>
       </c>
       <c r="M25" t="n">
         <v>596.6372794715317</v>
@@ -36533,13 +36533,13 @@
         <v>543.3944475481753</v>
       </c>
       <c r="P25" t="n">
-        <v>453.2580778605575</v>
+        <v>102.2410132440509</v>
       </c>
       <c r="Q25" t="n">
         <v>240.6780697880881</v>
       </c>
       <c r="R25" t="n">
-        <v>16.80628261773756</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>599.6007578428442</v>
       </c>
       <c r="K26" t="n">
-        <v>239.7229253891282</v>
+        <v>245.4530017946636</v>
       </c>
       <c r="L26" t="n">
-        <v>297.397486696303</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M26" t="n">
         <v>330.9120063106141</v>
       </c>
       <c r="N26" t="n">
-        <v>341.9965849360776</v>
+        <v>336.2665085305712</v>
       </c>
       <c r="O26" t="n">
         <v>317.5269286098678</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.71654800366026</v>
+        <v>34.71654800366025</v>
       </c>
       <c r="J27" t="n">
         <v>95.26486121615869</v>
@@ -36682,13 +36682,13 @@
         <v>218.9353769326371</v>
       </c>
       <c r="M27" t="n">
-        <v>247.9923295369595</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N27" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686686</v>
       </c>
       <c r="O27" t="n">
-        <v>239.9068254209628</v>
+        <v>232.4118965921325</v>
       </c>
       <c r="P27" t="n">
         <v>192.5463779596637</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.76611244730787</v>
+        <v>147.2203398863886</v>
       </c>
       <c r="K28" t="n">
-        <v>98.21408217520825</v>
+        <v>375.7478746713047</v>
       </c>
       <c r="L28" t="n">
-        <v>378.3133977985976</v>
+        <v>548.1144352673025</v>
       </c>
       <c r="M28" t="n">
-        <v>596.6372794715317</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N28" t="n">
-        <v>576.087381890693</v>
+        <v>505.4234428513989</v>
       </c>
       <c r="O28" t="n">
         <v>543.3944475481753</v>
       </c>
       <c r="P28" t="n">
-        <v>453.2580778605579</v>
+        <v>453.2580778605575</v>
       </c>
       <c r="Q28" t="n">
         <v>240.6780697880881</v>
       </c>
       <c r="R28" t="n">
-        <v>16.80628261773756</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>72.24182527314099</v>
       </c>
       <c r="J29" t="n">
-        <v>159.9495583954524</v>
+        <v>599.6007578428442</v>
       </c>
       <c r="K29" t="n">
-        <v>239.7229253891282</v>
+        <v>245.4530017946627</v>
       </c>
       <c r="L29" t="n">
-        <v>748.3478521127433</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M29" t="n">
-        <v>496.2056084168621</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N29" t="n">
         <v>336.2665085305712</v>
@@ -36855,7 +36855,7 @@
         <v>203.5111312293484</v>
       </c>
       <c r="R29" t="n">
-        <v>118.3809063174226</v>
+        <v>289.2435979871771</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J30" t="n">
-        <v>95.26486121615869</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K30" t="n">
-        <v>162.8228213822624</v>
+        <v>162.8228213822623</v>
       </c>
       <c r="L30" t="n">
         <v>218.935376932637</v>
@@ -36931,10 +36931,10 @@
         <v>192.5463779596637</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.7121545348443</v>
+        <v>121.217225706014</v>
       </c>
       <c r="R30" t="n">
-        <v>55.10984232273813</v>
+        <v>62.60477115156868</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.76611244730787</v>
+        <v>147.2203398863885</v>
       </c>
       <c r="K31" t="n">
-        <v>98.21408217520825</v>
+        <v>375.7478746713048</v>
       </c>
       <c r="L31" t="n">
-        <v>378.3133977986332</v>
+        <v>548.1144352673025</v>
       </c>
       <c r="M31" t="n">
-        <v>596.6372794715317</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N31" t="n">
-        <v>576.087381890693</v>
+        <v>505.423442851398</v>
       </c>
       <c r="O31" t="n">
         <v>543.3944475481753</v>
       </c>
       <c r="P31" t="n">
-        <v>453.2580778605579</v>
+        <v>453.2580778605575</v>
       </c>
       <c r="Q31" t="n">
         <v>240.6780697880881</v>
       </c>
       <c r="R31" t="n">
-        <v>16.80628261773756</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>72.24182527314099</v>
       </c>
       <c r="J32" t="n">
-        <v>159.9495583954524</v>
+        <v>599.6007578428442</v>
       </c>
       <c r="K32" t="n">
-        <v>239.7229253891282</v>
+        <v>245.4530017946631</v>
       </c>
       <c r="L32" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M32" t="n">
-        <v>330.9120063106142</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N32" t="n">
         <v>336.2665085305712</v>
@@ -37086,13 +37086,13 @@
         <v>317.5269286098678</v>
       </c>
       <c r="P32" t="n">
-        <v>342.4091339626839</v>
+        <v>271.0018873233957</v>
       </c>
       <c r="Q32" t="n">
-        <v>748.3478521127413</v>
+        <v>203.5111312293484</v>
       </c>
       <c r="R32" t="n">
-        <v>118.3809063174226</v>
+        <v>289.2435979871771</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J33" t="n">
-        <v>87.76993238732823</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K33" t="n">
         <v>162.8228213822624</v>
@@ -37159,7 +37159,7 @@
         <v>255.4872583657901</v>
       </c>
       <c r="N33" t="n">
-        <v>262.2492458686687</v>
+        <v>254.7543170398383</v>
       </c>
       <c r="O33" t="n">
         <v>239.9068254209628</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.76611244730786</v>
+        <v>147.2203398863885</v>
       </c>
       <c r="K34" t="n">
         <v>375.7478746713048</v>
       </c>
       <c r="L34" t="n">
-        <v>548.1144352673024</v>
+        <v>548.1144352673025</v>
       </c>
       <c r="M34" t="n">
-        <v>149.3024495067589</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N34" t="n">
-        <v>576.087381890693</v>
+        <v>505.423442851398</v>
       </c>
       <c r="O34" t="n">
         <v>543.3944475481753</v>
@@ -37250,7 +37250,7 @@
         <v>240.6780697880881</v>
       </c>
       <c r="R34" t="n">
-        <v>16.80628261773756</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>72.24182527314099</v>
       </c>
       <c r="J35" t="n">
-        <v>159.9495583954524</v>
+        <v>159.9495583954523</v>
       </c>
       <c r="K35" t="n">
         <v>239.7229253891282</v>
@@ -37320,16 +37320,16 @@
         <v>336.2665085305712</v>
       </c>
       <c r="O35" t="n">
-        <v>317.5269286098678</v>
+        <v>317.526928609868</v>
       </c>
       <c r="P35" t="n">
-        <v>271.0018873233957</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q35" t="n">
         <v>203.5111312293484</v>
       </c>
       <c r="R35" t="n">
-        <v>118.3809063174222</v>
+        <v>118.3809063174226</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.71654800366027</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J36" t="n">
-        <v>87.76993238732811</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K36" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L36" t="n">
-        <v>218.9353769326371</v>
+        <v>218.9353769326372</v>
       </c>
       <c r="M36" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N36" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O36" t="n">
         <v>239.9068254209628</v>
       </c>
       <c r="P36" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308331</v>
       </c>
       <c r="Q36" t="n">
         <v>128.7121545348443</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>147.2203398863886</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K37" t="n">
-        <v>375.7478746713048</v>
+        <v>223.02025934401</v>
       </c>
       <c r="L37" t="n">
-        <v>307.9325925009266</v>
+        <v>548.1144352673025</v>
       </c>
       <c r="M37" t="n">
         <v>132.5121611069731</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>72.241825273141</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J38" t="n">
-        <v>159.9495583954524</v>
+        <v>159.9495583954523</v>
       </c>
       <c r="K38" t="n">
-        <v>239.7229253891284</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L38" t="n">
         <v>297.3974866963031</v>
@@ -37560,13 +37560,13 @@
         <v>317.526928609868</v>
       </c>
       <c r="P38" t="n">
-        <v>271.0018873233957</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q38" t="n">
         <v>203.5111312293484</v>
       </c>
       <c r="R38" t="n">
-        <v>118.3809063174217</v>
+        <v>118.3809063174226</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>27.22161917482948</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J39" t="n">
-        <v>95.26486121615871</v>
+        <v>87.76993238732811</v>
       </c>
       <c r="K39" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L39" t="n">
-        <v>218.9353769326372</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M39" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N39" t="n">
         <v>262.2492458686688</v>
@@ -37703,28 +37703,28 @@
         <v>59.76611244730787</v>
       </c>
       <c r="K40" t="n">
-        <v>98.21408217520823</v>
+        <v>375.7478746713048</v>
       </c>
       <c r="L40" t="n">
-        <v>125.6802112592611</v>
+        <v>395.3868199400077</v>
       </c>
       <c r="M40" t="n">
-        <v>592.7148092945131</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N40" t="n">
-        <v>576.0873818906931</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O40" t="n">
-        <v>183.7061367418769</v>
+        <v>543.3944475481753</v>
       </c>
       <c r="P40" t="n">
         <v>453.2580778605577</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.6780697880886</v>
+        <v>240.6780697880881</v>
       </c>
       <c r="R40" t="n">
-        <v>16.80628261773757</v>
+        <v>16.80628261773756</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,25 +37776,25 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>72.241825273141</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J41" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K41" t="n">
-        <v>239.7229253891284</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L41" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M41" t="n">
-        <v>330.9120063106141</v>
+        <v>330.9120063106139</v>
       </c>
       <c r="N41" t="n">
         <v>336.2665085305712</v>
       </c>
       <c r="O41" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098678</v>
       </c>
       <c r="P41" t="n">
         <v>271.0018873233957</v>
@@ -37803,7 +37803,7 @@
         <v>203.5111312293484</v>
       </c>
       <c r="R41" t="n">
-        <v>118.3809063174217</v>
+        <v>118.3809063174226</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.71654800366027</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J42" t="n">
         <v>95.26486121615869</v>
@@ -37867,19 +37867,19 @@
         <v>218.9353769326372</v>
       </c>
       <c r="M42" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N42" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O42" t="n">
-        <v>232.4118965921321</v>
+        <v>239.9068254209628</v>
       </c>
       <c r="P42" t="n">
         <v>192.5463779596637</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.7121545348443</v>
+        <v>121.2172257060138</v>
       </c>
       <c r="R42" t="n">
         <v>62.60477115156868</v>
@@ -37940,28 +37940,28 @@
         <v>59.76611244730787</v>
       </c>
       <c r="K43" t="n">
-        <v>98.21408217520823</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L43" t="n">
-        <v>548.1144352673025</v>
+        <v>125.6802112592611</v>
       </c>
       <c r="M43" t="n">
-        <v>592.7148092945131</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="N43" t="n">
         <v>576.0873818906932</v>
       </c>
       <c r="O43" t="n">
-        <v>282.180669132496</v>
+        <v>543.3944475481753</v>
       </c>
       <c r="P43" t="n">
-        <v>102.2410132440509</v>
+        <v>263.4614588364134</v>
       </c>
       <c r="Q43" t="n">
         <v>70.78637800593469</v>
       </c>
       <c r="R43" t="n">
-        <v>16.80628261773757</v>
+        <v>16.80628261773756</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>72.241825273141</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J44" t="n">
         <v>159.9495583954526</v>
@@ -38022,19 +38022,19 @@
         <v>239.7229253891282</v>
       </c>
       <c r="L44" t="n">
-        <v>297.3974866963035</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M44" t="n">
-        <v>330.9120063106141</v>
+        <v>330.9120063106138</v>
       </c>
       <c r="N44" t="n">
         <v>336.2665085305712</v>
       </c>
       <c r="O44" t="n">
-        <v>317.5269286098676</v>
+        <v>317.526928609868</v>
       </c>
       <c r="P44" t="n">
-        <v>271.0018873233957</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q44" t="n">
         <v>203.5111312293484</v>
@@ -38095,19 +38095,19 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J45" t="n">
-        <v>95.26486121615871</v>
+        <v>87.76993238732811</v>
       </c>
       <c r="K45" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L45" t="n">
-        <v>218.9353769326372</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M45" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N45" t="n">
-        <v>254.754317039838</v>
+        <v>262.2492458686688</v>
       </c>
       <c r="O45" t="n">
         <v>239.9068254209628</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.76611244730788</v>
+        <v>147.2203398863885</v>
       </c>
       <c r="K46" t="n">
-        <v>98.21408217520826</v>
+        <v>135.5660319049293</v>
       </c>
       <c r="L46" t="n">
-        <v>226.1945486405035</v>
+        <v>548.1144352673025</v>
       </c>
       <c r="M46" t="n">
         <v>132.5121611069731</v>
       </c>
       <c r="N46" t="n">
-        <v>576.0873818906931</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O46" t="n">
         <v>543.3944475481753</v>
@@ -38195,10 +38195,10 @@
         <v>453.2580778605577</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.6780697880886</v>
+        <v>240.6780697880881</v>
       </c>
       <c r="R46" t="n">
-        <v>16.80628261773757</v>
+        <v>16.80628261773756</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
